--- a/pokemon.xlsx
+++ b/pokemon.xlsx
@@ -6,10 +6,11 @@
     <sheet state="visible" name="Premise" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Rules" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Rule Detail" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="AQ Table" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="WM Table" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Questions" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Choices" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="Sheet20" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="AQ Table" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="WM Table" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Questions" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="Choices" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="277">
   <si>
     <t>id</t>
   </si>
@@ -511,15 +512,15 @@
     <t>Pikachu</t>
   </si>
   <si>
+    <t>Ponyta</t>
+  </si>
+  <si>
+    <t>Persian</t>
+  </si>
+  <si>
     <t>Ninetales</t>
   </si>
   <si>
-    <t>Persian</t>
-  </si>
-  <si>
-    <t>Ponyta</t>
-  </si>
-  <si>
     <t>Jolteon</t>
   </si>
   <si>
@@ -724,6 +725,27 @@
     <t>premise_id</t>
   </si>
   <si>
+    <t>cuma buat gampangin? amin</t>
+  </si>
+  <si>
+    <t>nama</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>&gt;4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>uncertainty</t>
   </si>
   <si>
@@ -827,16 +849,13 @@
   </si>
   <si>
     <t>choice</t>
-  </si>
-  <si>
-    <t>abu_abu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -853,16 +872,26 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF232629"/>
+      <name val="Ui-monospace"/>
+    </font>
+    <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE3E6E8"/>
+        <bgColor rgb="FFE3E6E8"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -877,7 +906,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -896,7 +925,14 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -935,6 +971,10 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -7984,6 +8024,8 @@
     <col customWidth="1" min="1" max="1" width="3.75"/>
     <col customWidth="1" min="2" max="2" width="6.0"/>
     <col customWidth="1" min="3" max="3" width="9.13"/>
+    <col customWidth="1" min="6" max="6" width="5.38"/>
+    <col customWidth="1" min="10" max="34" width="6.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12319,6 +12361,9 @@
       <c r="C394" s="1">
         <v>38.0</v>
       </c>
+      <c r="G394" s="4"/>
+      <c r="H394" s="3"/>
+      <c r="I394" s="3"/>
     </row>
     <row r="395">
       <c r="A395" s="1">
@@ -12330,6 +12375,9 @@
       <c r="C395" s="1">
         <v>39.0</v>
       </c>
+      <c r="G395" s="4"/>
+      <c r="H395" s="3"/>
+      <c r="I395" s="3"/>
     </row>
     <row r="396">
       <c r="A396" s="1">
@@ -12341,6 +12389,9 @@
       <c r="C396" s="1">
         <v>12.0</v>
       </c>
+      <c r="G396" s="4"/>
+      <c r="H396" s="3"/>
+      <c r="I396" s="3"/>
     </row>
     <row r="397">
       <c r="A397" s="1">
@@ -12352,6 +12403,9 @@
       <c r="C397" s="1">
         <v>29.0</v>
       </c>
+      <c r="G397" s="4"/>
+      <c r="H397" s="3"/>
+      <c r="I397" s="3"/>
     </row>
     <row r="398">
       <c r="A398" s="1">
@@ -12363,6 +12417,9 @@
       <c r="C398" s="1">
         <v>34.0</v>
       </c>
+      <c r="G398" s="4"/>
+      <c r="H398" s="3"/>
+      <c r="I398" s="3"/>
     </row>
     <row r="399">
       <c r="A399" s="1">
@@ -12374,6 +12431,9 @@
       <c r="C399" s="1">
         <v>38.0</v>
       </c>
+      <c r="G399" s="4"/>
+      <c r="H399" s="3"/>
+      <c r="I399" s="3"/>
     </row>
     <row r="400">
       <c r="A400" s="1">
@@ -12385,6 +12445,9 @@
       <c r="C400" s="1">
         <v>40.0</v>
       </c>
+      <c r="G400" s="4"/>
+      <c r="H400" s="3"/>
+      <c r="I400" s="3"/>
     </row>
     <row r="401">
       <c r="A401" s="1">
@@ -12396,6 +12459,9 @@
       <c r="C401" s="1">
         <v>12.0</v>
       </c>
+      <c r="G401" s="4"/>
+      <c r="H401" s="3"/>
+      <c r="I401" s="3"/>
     </row>
     <row r="402">
       <c r="A402" s="1">
@@ -12407,6 +12473,9 @@
       <c r="C402" s="1">
         <v>30.0</v>
       </c>
+      <c r="G402" s="4"/>
+      <c r="H402" s="3"/>
+      <c r="I402" s="3"/>
     </row>
     <row r="403">
       <c r="A403" s="1">
@@ -12418,6 +12487,9 @@
       <c r="C403" s="1">
         <v>34.0</v>
       </c>
+      <c r="G403" s="4"/>
+      <c r="H403" s="3"/>
+      <c r="I403" s="3"/>
     </row>
     <row r="404">
       <c r="A404" s="1">
@@ -12429,6 +12501,9 @@
       <c r="C404" s="1">
         <v>37.0</v>
       </c>
+      <c r="G404" s="4"/>
+      <c r="H404" s="3"/>
+      <c r="I404" s="3"/>
     </row>
     <row r="405">
       <c r="A405" s="1">
@@ -12440,6 +12515,9 @@
       <c r="C405" s="1">
         <v>70.0</v>
       </c>
+      <c r="G405" s="4"/>
+      <c r="H405" s="3"/>
+      <c r="I405" s="3"/>
     </row>
     <row r="406">
       <c r="A406" s="1">
@@ -12451,6 +12529,9 @@
       <c r="C406" s="1">
         <v>12.0</v>
       </c>
+      <c r="G406" s="4"/>
+      <c r="H406" s="3"/>
+      <c r="I406" s="3"/>
     </row>
     <row r="407">
       <c r="A407" s="1">
@@ -12462,6 +12543,9 @@
       <c r="C407" s="1">
         <v>30.0</v>
       </c>
+      <c r="G407" s="4"/>
+      <c r="H407" s="3"/>
+      <c r="I407" s="3"/>
     </row>
     <row r="408">
       <c r="A408" s="1">
@@ -12473,6 +12557,9 @@
       <c r="C408" s="1">
         <v>34.0</v>
       </c>
+      <c r="G408" s="4"/>
+      <c r="H408" s="3"/>
+      <c r="I408" s="3"/>
     </row>
     <row r="409">
       <c r="A409" s="1">
@@ -12484,6 +12571,9 @@
       <c r="C409" s="1">
         <v>37.0</v>
       </c>
+      <c r="G409" s="4"/>
+      <c r="H409" s="3"/>
+      <c r="I409" s="3"/>
     </row>
     <row r="410">
       <c r="A410" s="1">
@@ -12495,6 +12585,9 @@
       <c r="C410" s="1">
         <v>69.0</v>
       </c>
+      <c r="G410" s="4"/>
+      <c r="H410" s="3"/>
+      <c r="I410" s="3"/>
     </row>
     <row r="411">
       <c r="A411" s="1">
@@ -12506,6 +12599,9 @@
       <c r="C411" s="1">
         <v>12.0</v>
       </c>
+      <c r="G411" s="4"/>
+      <c r="H411" s="3"/>
+      <c r="I411" s="3"/>
     </row>
     <row r="412">
       <c r="A412" s="1">
@@ -12517,6 +12613,9 @@
       <c r="C412" s="1">
         <v>30.0</v>
       </c>
+      <c r="G412" s="4"/>
+      <c r="H412" s="3"/>
+      <c r="I412" s="3"/>
     </row>
     <row r="413">
       <c r="A413" s="1">
@@ -12528,6 +12627,9 @@
       <c r="C413" s="1">
         <v>34.0</v>
       </c>
+      <c r="G413" s="4"/>
+      <c r="H413" s="3"/>
+      <c r="I413" s="3"/>
     </row>
     <row r="414">
       <c r="A414" s="1">
@@ -12539,6 +12641,9 @@
       <c r="C414" s="1">
         <v>38.0</v>
       </c>
+      <c r="G414" s="4"/>
+      <c r="H414" s="3"/>
+      <c r="I414" s="3"/>
     </row>
     <row r="415">
       <c r="A415" s="1">
@@ -12550,6 +12655,9 @@
       <c r="C415" s="1">
         <v>12.0</v>
       </c>
+      <c r="G415" s="4"/>
+      <c r="H415" s="3"/>
+      <c r="I415" s="3"/>
     </row>
     <row r="416">
       <c r="A416" s="1">
@@ -12561,6 +12669,9 @@
       <c r="C416" s="1">
         <v>31.0</v>
       </c>
+      <c r="G416" s="4"/>
+      <c r="H416" s="3"/>
+      <c r="I416" s="3"/>
     </row>
     <row r="417">
       <c r="A417" s="1">
@@ -12572,6 +12683,9 @@
       <c r="C417" s="1">
         <v>34.0</v>
       </c>
+      <c r="G417" s="4"/>
+      <c r="H417" s="3"/>
+      <c r="I417" s="4"/>
     </row>
     <row r="418">
       <c r="A418" s="1">
@@ -12583,6 +12697,9 @@
       <c r="C418" s="1">
         <v>38.0</v>
       </c>
+      <c r="G418" s="4"/>
+      <c r="H418" s="3"/>
+      <c r="I418" s="4"/>
     </row>
     <row r="419">
       <c r="A419" s="1">
@@ -12594,6 +12711,9 @@
       <c r="C419" s="1">
         <v>39.0</v>
       </c>
+      <c r="G419" s="4"/>
+      <c r="H419" s="3"/>
+      <c r="I419" s="4"/>
     </row>
     <row r="420">
       <c r="A420" s="1">
@@ -12605,6 +12725,9 @@
       <c r="C420" s="1">
         <v>12.0</v>
       </c>
+      <c r="G420" s="4"/>
+      <c r="H420" s="3"/>
+      <c r="I420" s="3"/>
     </row>
     <row r="421">
       <c r="A421" s="1">
@@ -12649,450 +12772,4536 @@
       <c r="C424" s="1">
         <v>40.0</v>
       </c>
+      <c r="AI424" s="6"/>
+      <c r="AJ424" s="4"/>
+      <c r="AK424" s="3"/>
+      <c r="AL424" s="3"/>
     </row>
     <row r="425">
       <c r="A425" s="1">
         <v>424.0</v>
       </c>
+      <c r="B425" s="7">
+        <v>91.0</v>
+      </c>
+      <c r="C425" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="AI425" s="3"/>
+      <c r="AJ425" s="4"/>
+      <c r="AK425" s="3"/>
+      <c r="AL425" s="3"/>
     </row>
     <row r="426">
       <c r="A426" s="1">
         <v>425.0</v>
       </c>
+      <c r="B426" s="8">
+        <v>91.0</v>
+      </c>
+      <c r="C426" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="AI426" s="3"/>
+      <c r="AJ426" s="4"/>
+      <c r="AK426" s="3"/>
+      <c r="AL426" s="3"/>
     </row>
     <row r="427">
       <c r="A427" s="1">
         <v>426.0</v>
       </c>
+      <c r="B427" s="8">
+        <v>91.0</v>
+      </c>
+      <c r="C427" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="AI427" s="3"/>
+      <c r="AJ427" s="4"/>
+      <c r="AK427" s="3"/>
+      <c r="AL427" s="3"/>
     </row>
     <row r="428">
       <c r="A428" s="1">
         <v>427.0</v>
       </c>
+      <c r="B428" s="8">
+        <v>91.0</v>
+      </c>
+      <c r="C428" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="AI428" s="3"/>
+      <c r="AJ428" s="4"/>
+      <c r="AK428" s="3"/>
+      <c r="AL428" s="3"/>
     </row>
     <row r="429">
       <c r="A429" s="1">
         <v>428.0</v>
       </c>
+      <c r="B429" s="8">
+        <v>92.0</v>
+      </c>
+      <c r="C429" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="AI429" s="3"/>
+      <c r="AJ429" s="4"/>
+      <c r="AK429" s="3"/>
+      <c r="AL429" s="3"/>
     </row>
     <row r="430">
       <c r="A430" s="1">
         <v>429.0</v>
       </c>
+      <c r="B430" s="8">
+        <v>92.0</v>
+      </c>
+      <c r="C430" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="AI430" s="3"/>
+      <c r="AJ430" s="4"/>
+      <c r="AK430" s="3"/>
+      <c r="AL430" s="3"/>
     </row>
     <row r="431">
       <c r="A431" s="1">
         <v>430.0</v>
       </c>
+      <c r="B431" s="8">
+        <v>92.0</v>
+      </c>
+      <c r="C431" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="AI431" s="3"/>
+      <c r="AJ431" s="4"/>
+      <c r="AK431" s="3"/>
+      <c r="AL431" s="3"/>
     </row>
     <row r="432">
       <c r="A432" s="1">
         <v>431.0</v>
       </c>
+      <c r="B432" s="8">
+        <v>92.0</v>
+      </c>
+      <c r="C432" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="AI432" s="3"/>
+      <c r="AJ432" s="4"/>
+      <c r="AK432" s="3"/>
+      <c r="AL432" s="3"/>
     </row>
     <row r="433">
       <c r="A433" s="1">
         <v>432.0</v>
       </c>
+      <c r="B433" s="1">
+        <v>92.0</v>
+      </c>
+      <c r="C433" s="1">
+        <v>71.0</v>
+      </c>
+      <c r="AI433" s="3"/>
+      <c r="AJ433" s="4"/>
+      <c r="AK433" s="3"/>
+      <c r="AL433" s="3"/>
     </row>
     <row r="434">
       <c r="A434" s="1">
         <v>433.0</v>
       </c>
+      <c r="B434" s="8">
+        <v>93.0</v>
+      </c>
+      <c r="C434" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="AI434" s="3"/>
+      <c r="AJ434" s="4"/>
+      <c r="AK434" s="3"/>
+      <c r="AL434" s="3"/>
     </row>
     <row r="435">
       <c r="A435" s="1">
         <v>434.0</v>
       </c>
+      <c r="B435" s="8">
+        <v>93.0</v>
+      </c>
+      <c r="C435" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="AI435" s="3"/>
+      <c r="AJ435" s="4"/>
+      <c r="AK435" s="3"/>
+      <c r="AL435" s="3"/>
     </row>
     <row r="436">
       <c r="A436" s="1">
         <v>435.0</v>
       </c>
+      <c r="B436" s="8">
+        <v>93.0</v>
+      </c>
+      <c r="C436" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="AI436" s="3"/>
+      <c r="AJ436" s="4"/>
+      <c r="AK436" s="3"/>
+      <c r="AL436" s="3"/>
     </row>
     <row r="437">
       <c r="A437" s="1">
         <v>436.0</v>
       </c>
+      <c r="B437" s="8">
+        <v>93.0</v>
+      </c>
+      <c r="C437" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="AI437" s="3"/>
+      <c r="AJ437" s="4"/>
+      <c r="AK437" s="3"/>
+      <c r="AL437" s="3"/>
     </row>
     <row r="438">
       <c r="A438" s="1">
         <v>437.0</v>
       </c>
+      <c r="B438" s="1">
+        <v>93.0</v>
+      </c>
+      <c r="C438" s="1">
+        <v>72.0</v>
+      </c>
+      <c r="AI438" s="3"/>
+      <c r="AJ438" s="4"/>
+      <c r="AK438" s="3"/>
+      <c r="AL438" s="3"/>
     </row>
     <row r="439">
       <c r="A439" s="1">
         <v>438.0</v>
       </c>
+      <c r="B439" s="8">
+        <v>94.0</v>
+      </c>
+      <c r="C439" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="AI439" s="3"/>
+      <c r="AJ439" s="4"/>
+      <c r="AK439" s="3"/>
+      <c r="AL439" s="3"/>
     </row>
     <row r="440">
       <c r="A440" s="1">
         <v>439.0</v>
       </c>
+      <c r="B440" s="8">
+        <v>94.0</v>
+      </c>
+      <c r="C440" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="AI440" s="3"/>
+      <c r="AJ440" s="4"/>
+      <c r="AK440" s="3"/>
+      <c r="AL440" s="3"/>
     </row>
     <row r="441">
       <c r="A441" s="1">
         <v>440.0</v>
       </c>
+      <c r="B441" s="8">
+        <v>94.0</v>
+      </c>
+      <c r="C441" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="AI441" s="3"/>
+      <c r="AJ441" s="4"/>
+      <c r="AK441" s="3"/>
+      <c r="AL441" s="3"/>
     </row>
     <row r="442">
       <c r="A442" s="1">
         <v>441.0</v>
       </c>
+      <c r="B442" s="8">
+        <v>94.0</v>
+      </c>
+      <c r="C442" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="AI442" s="3"/>
+      <c r="AJ442" s="4"/>
+      <c r="AK442" s="3"/>
+      <c r="AL442" s="3"/>
     </row>
     <row r="443">
       <c r="A443" s="1">
         <v>442.0</v>
       </c>
+      <c r="B443" s="1">
+        <v>94.0</v>
+      </c>
+      <c r="C443" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="AI443" s="3"/>
+      <c r="AJ443" s="4"/>
+      <c r="AK443" s="3"/>
+      <c r="AL443" s="3"/>
     </row>
     <row r="444">
       <c r="A444" s="1">
         <v>443.0</v>
       </c>
+      <c r="B444" s="1">
+        <v>94.0</v>
+      </c>
+      <c r="C444" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="AI444" s="3"/>
+      <c r="AJ444" s="4"/>
+      <c r="AK444" s="3"/>
+      <c r="AL444" s="3"/>
     </row>
     <row r="445">
       <c r="A445" s="1">
         <v>444.0</v>
       </c>
+      <c r="B445" s="8">
+        <v>95.0</v>
+      </c>
+      <c r="C445" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="AI445" s="3"/>
+      <c r="AJ445" s="4"/>
+      <c r="AK445" s="3"/>
+      <c r="AL445" s="3"/>
     </row>
     <row r="446">
       <c r="A446" s="1">
         <v>445.0</v>
       </c>
+      <c r="B446" s="8">
+        <v>95.0</v>
+      </c>
+      <c r="C446" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="AI446" s="3"/>
+      <c r="AJ446" s="4"/>
+      <c r="AK446" s="3"/>
+      <c r="AL446" s="3"/>
     </row>
     <row r="447">
       <c r="A447" s="1">
         <v>446.0</v>
       </c>
+      <c r="B447" s="8">
+        <v>95.0</v>
+      </c>
+      <c r="C447" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="AI447" s="3"/>
+      <c r="AJ447" s="4"/>
+      <c r="AK447" s="3"/>
+      <c r="AL447" s="4"/>
     </row>
     <row r="448">
       <c r="A448" s="1">
         <v>447.0</v>
       </c>
+      <c r="B448" s="8">
+        <v>95.0</v>
+      </c>
+      <c r="C448" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="AI448" s="3"/>
+      <c r="AJ448" s="4"/>
+      <c r="AK448" s="3"/>
+      <c r="AL448" s="4"/>
     </row>
     <row r="449">
       <c r="A449" s="1">
         <v>448.0</v>
       </c>
+      <c r="B449" s="1">
+        <v>95.0</v>
+      </c>
+      <c r="C449" s="1">
+        <v>73.0</v>
+      </c>
+      <c r="AI449" s="3"/>
+      <c r="AJ449" s="4"/>
+      <c r="AK449" s="3"/>
+      <c r="AL449" s="4"/>
     </row>
     <row r="450">
       <c r="A450" s="1">
         <v>449.0</v>
       </c>
+      <c r="B450" s="8">
+        <v>96.0</v>
+      </c>
+      <c r="C450" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="AI450" s="3"/>
+      <c r="AJ450" s="4"/>
+      <c r="AK450" s="3"/>
+      <c r="AL450" s="3"/>
     </row>
     <row r="451">
       <c r="A451" s="1">
         <v>450.0</v>
       </c>
+      <c r="B451" s="8">
+        <v>96.0</v>
+      </c>
+      <c r="C451" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="AI451" s="3"/>
+      <c r="AJ451" s="4"/>
+      <c r="AK451" s="3"/>
+      <c r="AL451" s="3"/>
     </row>
     <row r="452">
       <c r="A452" s="1">
         <v>451.0</v>
       </c>
+      <c r="B452" s="8">
+        <v>96.0</v>
+      </c>
+      <c r="C452" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="AI452" s="3"/>
+      <c r="AJ452" s="4"/>
+      <c r="AK452" s="3"/>
+      <c r="AL452" s="3"/>
     </row>
     <row r="453">
       <c r="A453" s="1">
         <v>452.0</v>
       </c>
+      <c r="B453" s="8">
+        <v>96.0</v>
+      </c>
+      <c r="C453" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="AI453" s="3"/>
+      <c r="AJ453" s="4"/>
+      <c r="AK453" s="3"/>
+      <c r="AL453" s="3"/>
     </row>
     <row r="454">
       <c r="A454" s="1">
         <v>453.0</v>
       </c>
+      <c r="B454" s="1">
+        <v>96.0</v>
+      </c>
+      <c r="C454" s="1">
+        <v>74.0</v>
+      </c>
+      <c r="AI454" s="3"/>
+      <c r="AJ454" s="4"/>
+      <c r="AK454" s="3"/>
+      <c r="AL454" s="3"/>
     </row>
     <row r="455">
       <c r="A455" s="1">
         <v>454.0</v>
       </c>
+      <c r="B455" s="8">
+        <v>97.0</v>
+      </c>
+      <c r="C455" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="AI455" s="3"/>
+      <c r="AJ455" s="4"/>
+      <c r="AK455" s="3"/>
+      <c r="AL455" s="3"/>
     </row>
     <row r="456">
       <c r="A456" s="1">
         <v>455.0</v>
       </c>
+      <c r="B456" s="8">
+        <v>97.0</v>
+      </c>
+      <c r="C456" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="AI456" s="3"/>
+      <c r="AJ456" s="4"/>
+      <c r="AK456" s="3"/>
+      <c r="AL456" s="3"/>
     </row>
     <row r="457">
       <c r="A457" s="1">
         <v>456.0</v>
       </c>
+      <c r="B457" s="8">
+        <v>97.0</v>
+      </c>
+      <c r="C457" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="AI457" s="3"/>
+      <c r="AJ457" s="4"/>
+      <c r="AK457" s="3"/>
+      <c r="AL457" s="3"/>
     </row>
     <row r="458">
       <c r="A458" s="1">
         <v>457.0</v>
       </c>
+      <c r="B458" s="8">
+        <v>97.0</v>
+      </c>
+      <c r="C458" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="AI458" s="3"/>
+      <c r="AJ458" s="4"/>
+      <c r="AK458" s="3"/>
+      <c r="AL458" s="3"/>
     </row>
     <row r="459">
       <c r="A459" s="1">
         <v>458.0</v>
       </c>
+      <c r="B459" s="1">
+        <v>97.0</v>
+      </c>
+      <c r="C459" s="1">
+        <v>73.0</v>
+      </c>
+      <c r="AI459" s="3"/>
+      <c r="AJ459" s="4"/>
+      <c r="AK459" s="3"/>
+      <c r="AL459" s="3"/>
     </row>
     <row r="460">
       <c r="A460" s="1">
         <v>459.0</v>
       </c>
+      <c r="B460" s="8">
+        <v>98.0</v>
+      </c>
+      <c r="C460" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="AI460" s="3"/>
+      <c r="AJ460" s="4"/>
+      <c r="AK460" s="3"/>
+      <c r="AL460" s="3"/>
     </row>
     <row r="461">
       <c r="A461" s="1">
         <v>460.0</v>
       </c>
+      <c r="B461" s="8">
+        <v>98.0</v>
+      </c>
+      <c r="C461" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="AI461" s="3"/>
+      <c r="AJ461" s="4"/>
+      <c r="AK461" s="3"/>
+      <c r="AL461" s="3"/>
     </row>
     <row r="462">
       <c r="A462" s="1">
         <v>461.0</v>
       </c>
+      <c r="B462" s="8">
+        <v>98.0</v>
+      </c>
+      <c r="C462" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="AI462" s="3"/>
+      <c r="AJ462" s="4"/>
+      <c r="AK462" s="3"/>
+      <c r="AL462" s="3"/>
     </row>
     <row r="463">
       <c r="A463" s="1">
         <v>462.0</v>
       </c>
+      <c r="B463" s="8">
+        <v>98.0</v>
+      </c>
+      <c r="C463" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="AI463" s="3"/>
+      <c r="AJ463" s="4"/>
+      <c r="AK463" s="3"/>
+      <c r="AL463" s="3"/>
     </row>
     <row r="464">
       <c r="A464" s="1">
         <v>463.0</v>
       </c>
+      <c r="B464" s="1">
+        <v>98.0</v>
+      </c>
+      <c r="C464" s="1">
+        <v>74.0</v>
+      </c>
+      <c r="AI464" s="3"/>
+      <c r="AJ464" s="4"/>
+      <c r="AK464" s="3"/>
+      <c r="AL464" s="3"/>
     </row>
     <row r="465">
       <c r="A465" s="1">
         <v>464.0</v>
       </c>
+      <c r="B465" s="1">
+        <v>99.0</v>
+      </c>
+      <c r="C465" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="AI465" s="3"/>
+      <c r="AJ465" s="4"/>
+      <c r="AK465" s="3"/>
+      <c r="AL465" s="3"/>
     </row>
     <row r="466">
       <c r="A466" s="1">
         <v>465.0</v>
       </c>
+      <c r="B466" s="1">
+        <v>99.0</v>
+      </c>
+      <c r="C466" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="AI466" s="3"/>
+      <c r="AJ466" s="4"/>
+      <c r="AK466" s="3"/>
+      <c r="AL466" s="3"/>
     </row>
     <row r="467">
       <c r="A467" s="1">
         <v>466.0</v>
       </c>
+      <c r="B467" s="1">
+        <v>99.0</v>
+      </c>
+      <c r="C467" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="AI467" s="3"/>
+      <c r="AJ467" s="4"/>
+      <c r="AK467" s="3"/>
+      <c r="AL467" s="3"/>
     </row>
     <row r="468">
       <c r="A468" s="1">
         <v>467.0</v>
       </c>
+      <c r="B468" s="1">
+        <v>99.0</v>
+      </c>
+      <c r="C468" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="AI468" s="3"/>
+      <c r="AJ468" s="4"/>
+      <c r="AK468" s="3"/>
+      <c r="AL468" s="3"/>
     </row>
     <row r="469">
       <c r="A469" s="1">
         <v>468.0</v>
       </c>
+      <c r="B469" s="1">
+        <v>99.0</v>
+      </c>
+      <c r="C469" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="AI469" s="3"/>
+      <c r="AJ469" s="4"/>
+      <c r="AK469" s="3"/>
+      <c r="AL469" s="3"/>
     </row>
     <row r="470">
       <c r="A470" s="1">
         <v>469.0</v>
       </c>
+      <c r="B470" s="1">
+        <v>99.0</v>
+      </c>
+      <c r="C470" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="AI470" s="3"/>
+      <c r="AJ470" s="4"/>
+      <c r="AK470" s="3"/>
+      <c r="AL470" s="3"/>
     </row>
     <row r="471">
       <c r="A471" s="1">
         <v>470.0</v>
       </c>
+      <c r="B471" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="C471" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="AI471" s="3"/>
+      <c r="AJ471" s="4"/>
+      <c r="AK471" s="3"/>
+      <c r="AL471" s="3"/>
     </row>
     <row r="472">
       <c r="A472" s="1">
         <v>471.0</v>
       </c>
+      <c r="B472" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="C472" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="AI472" s="3"/>
+      <c r="AJ472" s="4"/>
+      <c r="AK472" s="3"/>
+      <c r="AL472" s="3"/>
     </row>
     <row r="473">
       <c r="A473" s="1">
         <v>472.0</v>
       </c>
+      <c r="B473" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="C473" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="AI473" s="3"/>
+      <c r="AJ473" s="4"/>
+      <c r="AK473" s="3"/>
+      <c r="AL473" s="3"/>
     </row>
     <row r="474">
       <c r="A474" s="1">
         <v>473.0</v>
       </c>
+      <c r="B474" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="C474" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="AI474" s="3"/>
+      <c r="AJ474" s="4"/>
+      <c r="AK474" s="3"/>
+      <c r="AL474" s="3"/>
     </row>
     <row r="475">
       <c r="A475" s="1">
         <v>474.0</v>
       </c>
+      <c r="B475" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="C475" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="AI475" s="3"/>
+      <c r="AJ475" s="4"/>
+      <c r="AK475" s="3"/>
+      <c r="AL475" s="3"/>
     </row>
     <row r="476">
       <c r="A476" s="1">
         <v>475.0</v>
       </c>
+      <c r="B476" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="C476" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="AI476" s="3"/>
+      <c r="AJ476" s="4"/>
+      <c r="AK476" s="3"/>
+      <c r="AL476" s="3"/>
     </row>
     <row r="477">
       <c r="A477" s="1">
         <v>476.0</v>
       </c>
+      <c r="B477" s="1">
+        <v>101.0</v>
+      </c>
+      <c r="C477" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="AI477" s="3"/>
+      <c r="AJ477" s="4"/>
+      <c r="AK477" s="3"/>
+      <c r="AL477" s="3"/>
     </row>
     <row r="478">
       <c r="A478" s="1">
         <v>477.0</v>
       </c>
+      <c r="B478" s="1">
+        <v>101.0</v>
+      </c>
+      <c r="C478" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="AI478" s="3"/>
+      <c r="AJ478" s="4"/>
+      <c r="AK478" s="3"/>
+      <c r="AL478" s="3"/>
     </row>
     <row r="479">
       <c r="A479" s="1">
         <v>478.0</v>
       </c>
+      <c r="B479" s="1">
+        <v>101.0</v>
+      </c>
+      <c r="C479" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="AI479" s="3"/>
+      <c r="AJ479" s="4"/>
+      <c r="AK479" s="3"/>
+      <c r="AL479" s="3"/>
     </row>
     <row r="480">
       <c r="A480" s="1">
         <v>479.0</v>
       </c>
+      <c r="B480" s="1">
+        <v>101.0</v>
+      </c>
+      <c r="C480" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="AI480" s="3"/>
+      <c r="AJ480" s="4"/>
+      <c r="AK480" s="3"/>
+      <c r="AL480" s="3"/>
     </row>
     <row r="481">
       <c r="A481" s="1">
         <v>480.0</v>
       </c>
+      <c r="B481" s="1">
+        <v>102.0</v>
+      </c>
+      <c r="C481" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="AI481" s="3"/>
+      <c r="AJ481" s="4"/>
+      <c r="AK481" s="3"/>
+      <c r="AL481" s="3"/>
     </row>
     <row r="482">
       <c r="A482" s="1">
         <v>481.0</v>
       </c>
+      <c r="B482" s="1">
+        <v>102.0</v>
+      </c>
+      <c r="C482" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="AI482" s="3"/>
+      <c r="AJ482" s="4"/>
+      <c r="AK482" s="3"/>
+      <c r="AL482" s="3"/>
     </row>
     <row r="483">
       <c r="A483" s="1">
         <v>482.0</v>
       </c>
+      <c r="B483" s="1">
+        <v>102.0</v>
+      </c>
+      <c r="C483" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="AI483" s="3"/>
+      <c r="AJ483" s="4"/>
+      <c r="AK483" s="3"/>
+      <c r="AL483" s="3"/>
     </row>
     <row r="484">
       <c r="A484" s="1">
         <v>483.0</v>
       </c>
+      <c r="B484" s="1">
+        <v>102.0</v>
+      </c>
+      <c r="C484" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="AI484" s="3"/>
+      <c r="AJ484" s="4"/>
+      <c r="AK484" s="3"/>
+      <c r="AL484" s="3"/>
     </row>
     <row r="485">
       <c r="A485" s="1">
         <v>484.0</v>
       </c>
+      <c r="B485" s="1">
+        <v>103.0</v>
+      </c>
+      <c r="C485" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="AI485" s="3"/>
+      <c r="AJ485" s="4"/>
+      <c r="AK485" s="3"/>
+      <c r="AL485" s="3"/>
     </row>
     <row r="486">
       <c r="A486" s="1">
         <v>485.0</v>
       </c>
+      <c r="B486" s="1">
+        <v>103.0</v>
+      </c>
+      <c r="C486" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="AI486" s="3"/>
+      <c r="AJ486" s="4"/>
+      <c r="AK486" s="3"/>
+      <c r="AL486" s="3"/>
     </row>
     <row r="487">
       <c r="A487" s="1">
         <v>486.0</v>
       </c>
+      <c r="B487" s="1">
+        <v>103.0</v>
+      </c>
+      <c r="C487" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="AI487" s="3"/>
+      <c r="AJ487" s="4"/>
+      <c r="AK487" s="3"/>
+      <c r="AL487" s="3"/>
     </row>
     <row r="488">
       <c r="A488" s="1">
         <v>487.0</v>
       </c>
+      <c r="B488" s="1">
+        <v>103.0</v>
+      </c>
+      <c r="C488" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="AI488" s="3"/>
+      <c r="AJ488" s="4"/>
+      <c r="AK488" s="3"/>
+      <c r="AL488" s="3"/>
     </row>
     <row r="489">
       <c r="A489" s="1">
         <v>488.0</v>
       </c>
+      <c r="B489" s="1">
+        <v>104.0</v>
+      </c>
+      <c r="C489" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="AI489" s="3"/>
+      <c r="AJ489" s="4"/>
+      <c r="AK489" s="3"/>
+      <c r="AL489" s="3"/>
     </row>
     <row r="490">
       <c r="A490" s="1">
         <v>489.0</v>
       </c>
+      <c r="B490" s="1">
+        <v>104.0</v>
+      </c>
+      <c r="C490" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="AI490" s="3"/>
+      <c r="AJ490" s="4"/>
+      <c r="AK490" s="3"/>
+      <c r="AL490" s="3"/>
     </row>
     <row r="491">
       <c r="A491" s="1">
         <v>490.0</v>
       </c>
+      <c r="B491" s="1">
+        <v>104.0</v>
+      </c>
+      <c r="C491" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="AI491" s="3"/>
+      <c r="AJ491" s="4"/>
+      <c r="AK491" s="3"/>
+      <c r="AL491" s="3"/>
     </row>
     <row r="492">
       <c r="A492" s="1">
         <v>491.0</v>
       </c>
+      <c r="B492" s="1">
+        <v>104.0</v>
+      </c>
+      <c r="C492" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="AI492" s="3"/>
+      <c r="AJ492" s="4"/>
+      <c r="AK492" s="3"/>
+      <c r="AL492" s="3"/>
     </row>
     <row r="493">
       <c r="A493" s="1">
         <v>492.0</v>
       </c>
+      <c r="B493" s="1">
+        <v>105.0</v>
+      </c>
+      <c r="C493" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="AI493" s="3"/>
+      <c r="AJ493" s="4"/>
+      <c r="AK493" s="3"/>
+      <c r="AL493" s="3"/>
     </row>
     <row r="494">
       <c r="A494" s="1">
         <v>493.0</v>
       </c>
+      <c r="B494" s="1">
+        <v>105.0</v>
+      </c>
+      <c r="C494" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="AI494" s="3"/>
+      <c r="AJ494" s="4"/>
+      <c r="AK494" s="3"/>
+      <c r="AL494" s="3"/>
     </row>
     <row r="495">
       <c r="A495" s="1">
         <v>494.0</v>
       </c>
+      <c r="B495" s="1">
+        <v>105.0</v>
+      </c>
+      <c r="C495" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="AI495" s="3"/>
+      <c r="AJ495" s="4"/>
+      <c r="AK495" s="3"/>
+      <c r="AL495" s="3"/>
     </row>
     <row r="496">
       <c r="A496" s="1">
         <v>495.0</v>
       </c>
+      <c r="B496" s="1">
+        <v>105.0</v>
+      </c>
+      <c r="C496" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="AI496" s="3"/>
+      <c r="AJ496" s="4"/>
+      <c r="AK496" s="3"/>
+      <c r="AL496" s="3"/>
     </row>
     <row r="497">
       <c r="A497" s="1">
         <v>496.0</v>
       </c>
+      <c r="B497" s="1">
+        <v>106.0</v>
+      </c>
+      <c r="C497" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="AI497" s="3"/>
+      <c r="AJ497" s="4"/>
+      <c r="AK497" s="3"/>
+      <c r="AL497" s="3"/>
     </row>
     <row r="498">
       <c r="A498" s="1">
         <v>497.0</v>
       </c>
+      <c r="B498" s="1">
+        <v>106.0</v>
+      </c>
+      <c r="C498" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="AI498" s="3"/>
+      <c r="AJ498" s="4"/>
+      <c r="AK498" s="3"/>
+      <c r="AL498" s="3"/>
     </row>
     <row r="499">
       <c r="A499" s="1">
         <v>498.0</v>
       </c>
+      <c r="B499" s="1">
+        <v>106.0</v>
+      </c>
+      <c r="C499" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="AI499" s="3"/>
+      <c r="AJ499" s="4"/>
+      <c r="AK499" s="3"/>
+      <c r="AL499" s="3"/>
     </row>
     <row r="500">
       <c r="A500" s="1">
         <v>499.0</v>
       </c>
+      <c r="B500" s="1">
+        <v>106.0</v>
+      </c>
+      <c r="C500" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="AI500" s="3"/>
+      <c r="AJ500" s="3"/>
+      <c r="AK500" s="3"/>
+      <c r="AL500" s="3"/>
     </row>
     <row r="501">
       <c r="A501" s="1">
         <v>500.0</v>
       </c>
+      <c r="B501" s="1">
+        <v>106.0</v>
+      </c>
+      <c r="C501" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="AI501" s="3"/>
+      <c r="AJ501" s="3"/>
+      <c r="AK501" s="3"/>
+      <c r="AL501" s="3"/>
     </row>
     <row r="502">
       <c r="A502" s="1">
         <v>501.0</v>
       </c>
+      <c r="B502" s="1">
+        <v>106.0</v>
+      </c>
+      <c r="C502" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="AI502" s="3"/>
+      <c r="AJ502" s="3"/>
+      <c r="AK502" s="3"/>
+      <c r="AL502" s="3"/>
     </row>
     <row r="503">
       <c r="A503" s="1">
         <v>502.0</v>
       </c>
+      <c r="B503" s="1">
+        <v>106.0</v>
+      </c>
+      <c r="C503" s="1">
+        <v>51.0</v>
+      </c>
+      <c r="AI503" s="3"/>
+      <c r="AJ503" s="3"/>
+      <c r="AK503" s="3"/>
+      <c r="AL503" s="3"/>
     </row>
     <row r="504">
       <c r="A504" s="1">
         <v>503.0</v>
       </c>
+      <c r="B504" s="1">
+        <v>107.0</v>
+      </c>
+      <c r="C504" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="AI504" s="3"/>
+      <c r="AJ504" s="3"/>
+      <c r="AK504" s="3"/>
+      <c r="AL504" s="3"/>
     </row>
     <row r="505">
       <c r="A505" s="1">
         <v>504.0</v>
       </c>
+      <c r="B505" s="1">
+        <v>107.0</v>
+      </c>
+      <c r="C505" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="AI505" s="3"/>
+      <c r="AJ505" s="3"/>
+      <c r="AK505" s="3"/>
+      <c r="AL505" s="3"/>
     </row>
     <row r="506">
       <c r="A506" s="1">
         <v>505.0</v>
       </c>
+      <c r="B506" s="1">
+        <v>107.0</v>
+      </c>
+      <c r="C506" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="AI506" s="3"/>
+      <c r="AJ506" s="3"/>
+      <c r="AK506" s="3"/>
+      <c r="AL506" s="3"/>
     </row>
     <row r="507">
       <c r="A507" s="1">
         <v>506.0</v>
       </c>
+      <c r="B507" s="1">
+        <v>107.0</v>
+      </c>
+      <c r="C507" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="AI507" s="3"/>
+      <c r="AJ507" s="3"/>
+      <c r="AK507" s="3"/>
+      <c r="AL507" s="3"/>
     </row>
     <row r="508">
       <c r="A508" s="1">
         <v>507.0</v>
       </c>
+      <c r="B508" s="1">
+        <v>107.0</v>
+      </c>
+      <c r="C508" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="AI508" s="3"/>
+      <c r="AJ508" s="3"/>
+      <c r="AK508" s="3"/>
+      <c r="AL508" s="3"/>
     </row>
     <row r="509">
       <c r="A509" s="1">
         <v>508.0</v>
       </c>
+      <c r="B509" s="1">
+        <v>107.0</v>
+      </c>
+      <c r="C509" s="1">
+        <v>41.0</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="1">
         <v>509.0</v>
       </c>
+      <c r="B510" s="1">
+        <v>107.0</v>
+      </c>
+      <c r="C510" s="1">
+        <v>52.0</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="1">
         <v>510.0</v>
       </c>
+      <c r="B511" s="1">
+        <v>107.0</v>
+      </c>
+      <c r="C511" s="1">
+        <v>61.0</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="1">
         <v>511.0</v>
       </c>
+      <c r="B512" s="1">
+        <v>108.0</v>
+      </c>
+      <c r="C512" s="1">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="1">
         <v>512.0</v>
+      </c>
+      <c r="B513" s="1">
+        <v>108.0</v>
+      </c>
+      <c r="C513" s="1">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1">
+        <v>513.0</v>
+      </c>
+      <c r="B514" s="1">
+        <v>108.0</v>
+      </c>
+      <c r="C514" s="1">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1">
+        <v>514.0</v>
+      </c>
+      <c r="B515" s="1">
+        <v>108.0</v>
+      </c>
+      <c r="C515" s="1">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1">
+        <v>515.0</v>
+      </c>
+      <c r="B516" s="1">
+        <v>108.0</v>
+      </c>
+      <c r="C516" s="1">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1">
+        <v>516.0</v>
+      </c>
+      <c r="B517" s="1">
+        <v>108.0</v>
+      </c>
+      <c r="C517" s="1">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1">
+        <v>517.0</v>
+      </c>
+      <c r="B518" s="1">
+        <v>108.0</v>
+      </c>
+      <c r="C518" s="1">
+        <v>52.0</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1">
+        <v>518.0</v>
+      </c>
+      <c r="B519" s="1">
+        <v>108.0</v>
+      </c>
+      <c r="C519" s="1">
+        <v>62.0</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1">
+        <v>519.0</v>
+      </c>
+      <c r="B520" s="1">
+        <v>108.0</v>
+      </c>
+      <c r="C520" s="1">
+        <v>75.0</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1">
+        <v>520.0</v>
+      </c>
+      <c r="B521" s="1">
+        <v>109.0</v>
+      </c>
+      <c r="C521" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1">
+        <v>521.0</v>
+      </c>
+      <c r="B522" s="1">
+        <v>109.0</v>
+      </c>
+      <c r="C522" s="1">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1">
+        <v>522.0</v>
+      </c>
+      <c r="B523" s="1">
+        <v>109.0</v>
+      </c>
+      <c r="C523" s="1">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1">
+        <v>523.0</v>
+      </c>
+      <c r="B524" s="1">
+        <v>109.0</v>
+      </c>
+      <c r="C524" s="1">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1">
+        <v>524.0</v>
+      </c>
+      <c r="B525" s="1">
+        <v>109.0</v>
+      </c>
+      <c r="C525" s="1">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1">
+        <v>525.0</v>
+      </c>
+      <c r="B526" s="1">
+        <v>109.0</v>
+      </c>
+      <c r="C526" s="1">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1">
+        <v>526.0</v>
+      </c>
+      <c r="B527" s="1">
+        <v>109.0</v>
+      </c>
+      <c r="C527" s="1">
+        <v>52.0</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1">
+        <v>527.0</v>
+      </c>
+      <c r="B528" s="1">
+        <v>109.0</v>
+      </c>
+      <c r="C528" s="1">
+        <v>62.0</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1">
+        <v>528.0</v>
+      </c>
+      <c r="B529" s="1">
+        <v>109.0</v>
+      </c>
+      <c r="C529" s="1">
+        <v>76.0</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1">
+        <v>529.0</v>
+      </c>
+      <c r="B530" s="1">
+        <v>110.0</v>
+      </c>
+      <c r="C530" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1">
+        <v>530.0</v>
+      </c>
+      <c r="B531" s="1">
+        <v>110.0</v>
+      </c>
+      <c r="C531" s="1">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1">
+        <v>531.0</v>
+      </c>
+      <c r="B532" s="1">
+        <v>110.0</v>
+      </c>
+      <c r="C532" s="1">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1">
+        <v>532.0</v>
+      </c>
+      <c r="B533" s="1">
+        <v>110.0</v>
+      </c>
+      <c r="C533" s="1">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1">
+        <v>533.0</v>
+      </c>
+      <c r="B534" s="1">
+        <v>111.0</v>
+      </c>
+      <c r="C534" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1">
+        <v>534.0</v>
+      </c>
+      <c r="B535" s="1">
+        <v>111.0</v>
+      </c>
+      <c r="C535" s="1">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1">
+        <v>535.0</v>
+      </c>
+      <c r="B536" s="1">
+        <v>111.0</v>
+      </c>
+      <c r="C536" s="1">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1">
+        <v>536.0</v>
+      </c>
+      <c r="B537" s="1">
+        <v>111.0</v>
+      </c>
+      <c r="C537" s="1">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1">
+        <v>537.0</v>
+      </c>
+      <c r="B538" s="1">
+        <v>111.0</v>
+      </c>
+      <c r="C538" s="1">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1">
+        <v>538.0</v>
+      </c>
+      <c r="B539" s="1">
+        <v>111.0</v>
+      </c>
+      <c r="C539" s="1">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1">
+        <v>539.0</v>
+      </c>
+      <c r="B540" s="1">
+        <v>112.0</v>
+      </c>
+      <c r="C540" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1">
+        <v>540.0</v>
+      </c>
+      <c r="B541" s="1">
+        <v>112.0</v>
+      </c>
+      <c r="C541" s="1">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1">
+        <v>541.0</v>
+      </c>
+      <c r="B542" s="1">
+        <v>112.0</v>
+      </c>
+      <c r="C542" s="1">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1">
+        <v>542.0</v>
+      </c>
+      <c r="B543" s="1">
+        <v>112.0</v>
+      </c>
+      <c r="C543" s="1">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1">
+        <v>543.0</v>
+      </c>
+      <c r="B544" s="1">
+        <v>112.0</v>
+      </c>
+      <c r="C544" s="1">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1">
+        <v>544.0</v>
+      </c>
+      <c r="B545" s="1">
+        <v>112.0</v>
+      </c>
+      <c r="C545" s="1">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1">
+        <v>545.0</v>
+      </c>
+      <c r="B546" s="1">
+        <v>113.0</v>
+      </c>
+      <c r="C546" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1">
+        <v>546.0</v>
+      </c>
+      <c r="B547" s="1">
+        <v>113.0</v>
+      </c>
+      <c r="C547" s="1">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1">
+        <v>547.0</v>
+      </c>
+      <c r="B548" s="1">
+        <v>113.0</v>
+      </c>
+      <c r="C548" s="1">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1">
+        <v>548.0</v>
+      </c>
+      <c r="B549" s="1">
+        <v>113.0</v>
+      </c>
+      <c r="C549" s="1">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1">
+        <v>549.0</v>
+      </c>
+      <c r="B550" s="1">
+        <v>113.0</v>
+      </c>
+      <c r="C550" s="1">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1">
+        <v>550.0</v>
+      </c>
+      <c r="B551" s="1">
+        <v>113.0</v>
+      </c>
+      <c r="C551" s="1">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1">
+        <v>551.0</v>
+      </c>
+      <c r="B552" s="1">
+        <v>113.0</v>
+      </c>
+      <c r="C552" s="1">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1">
+        <v>552.0</v>
+      </c>
+      <c r="B553" s="1">
+        <v>114.0</v>
+      </c>
+      <c r="C553" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1">
+        <v>553.0</v>
+      </c>
+      <c r="B554" s="1">
+        <v>114.0</v>
+      </c>
+      <c r="C554" s="1">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1">
+        <v>554.0</v>
+      </c>
+      <c r="B555" s="1">
+        <v>114.0</v>
+      </c>
+      <c r="C555" s="1">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1">
+        <v>555.0</v>
+      </c>
+      <c r="B556" s="1">
+        <v>114.0</v>
+      </c>
+      <c r="C556" s="1">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1">
+        <v>556.0</v>
+      </c>
+      <c r="B557" s="1">
+        <v>114.0</v>
+      </c>
+      <c r="C557" s="1">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1">
+        <v>557.0</v>
+      </c>
+      <c r="B558" s="1">
+        <v>114.0</v>
+      </c>
+      <c r="C558" s="1">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1">
+        <v>558.0</v>
+      </c>
+      <c r="B559" s="1">
+        <v>114.0</v>
+      </c>
+      <c r="C559" s="1">
+        <v>62.0</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1">
+        <v>559.0</v>
+      </c>
+      <c r="B560" s="1">
+        <v>115.0</v>
+      </c>
+      <c r="C560" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1">
+        <v>560.0</v>
+      </c>
+      <c r="B561" s="1">
+        <v>115.0</v>
+      </c>
+      <c r="C561" s="1">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1">
+        <v>561.0</v>
+      </c>
+      <c r="B562" s="1">
+        <v>115.0</v>
+      </c>
+      <c r="C562" s="1">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1">
+        <v>562.0</v>
+      </c>
+      <c r="B563" s="1">
+        <v>115.0</v>
+      </c>
+      <c r="C563" s="1">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1">
+        <v>563.0</v>
+      </c>
+      <c r="B564" s="1">
+        <v>115.0</v>
+      </c>
+      <c r="C564" s="1">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1">
+        <v>564.0</v>
+      </c>
+      <c r="B565" s="1">
+        <v>115.0</v>
+      </c>
+      <c r="C565" s="1">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1">
+        <v>565.0</v>
+      </c>
+      <c r="B566" s="1">
+        <v>116.0</v>
+      </c>
+      <c r="C566" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1">
+        <v>566.0</v>
+      </c>
+      <c r="B567" s="1">
+        <v>116.0</v>
+      </c>
+      <c r="C567" s="1">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1">
+        <v>567.0</v>
+      </c>
+      <c r="B568" s="1">
+        <v>116.0</v>
+      </c>
+      <c r="C568" s="1">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1">
+        <v>568.0</v>
+      </c>
+      <c r="B569" s="1">
+        <v>116.0</v>
+      </c>
+      <c r="C569" s="1">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1">
+        <v>569.0</v>
+      </c>
+      <c r="B570" s="1">
+        <v>116.0</v>
+      </c>
+      <c r="C570" s="1">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1">
+        <v>570.0</v>
+      </c>
+      <c r="B571" s="1">
+        <v>117.0</v>
+      </c>
+      <c r="C571" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1">
+        <v>571.0</v>
+      </c>
+      <c r="B572" s="1">
+        <v>117.0</v>
+      </c>
+      <c r="C572" s="1">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1">
+        <v>572.0</v>
+      </c>
+      <c r="B573" s="1">
+        <v>117.0</v>
+      </c>
+      <c r="C573" s="1">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1">
+        <v>573.0</v>
+      </c>
+      <c r="B574" s="1">
+        <v>117.0</v>
+      </c>
+      <c r="C574" s="1">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1">
+        <v>574.0</v>
+      </c>
+      <c r="B575" s="1">
+        <v>117.0</v>
+      </c>
+      <c r="C575" s="1">
+        <v>62.0</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1">
+        <v>575.0</v>
+      </c>
+      <c r="B576" s="1">
+        <v>118.0</v>
+      </c>
+      <c r="C576" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1">
+        <v>576.0</v>
+      </c>
+      <c r="B577" s="1">
+        <v>118.0</v>
+      </c>
+      <c r="C577" s="1">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1">
+        <v>577.0</v>
+      </c>
+      <c r="B578" s="1">
+        <v>118.0</v>
+      </c>
+      <c r="C578" s="1">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1">
+        <v>578.0</v>
+      </c>
+      <c r="B579" s="1">
+        <v>118.0</v>
+      </c>
+      <c r="C579" s="1">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1">
+        <v>579.0</v>
+      </c>
+      <c r="B580" s="1">
+        <v>119.0</v>
+      </c>
+      <c r="C580" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1">
+        <v>580.0</v>
+      </c>
+      <c r="B581" s="1">
+        <v>119.0</v>
+      </c>
+      <c r="C581" s="1">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1">
+        <v>581.0</v>
+      </c>
+      <c r="B582" s="1">
+        <v>120.0</v>
+      </c>
+      <c r="C582" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1">
+        <v>582.0</v>
+      </c>
+      <c r="B583" s="1">
+        <v>120.0</v>
+      </c>
+      <c r="C583" s="1">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1">
+        <v>583.0</v>
+      </c>
+      <c r="B584" s="1">
+        <v>121.0</v>
+      </c>
+      <c r="C584" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1">
+        <v>584.0</v>
+      </c>
+      <c r="B585" s="1">
+        <v>121.0</v>
+      </c>
+      <c r="C585" s="1">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1">
+        <v>585.0</v>
+      </c>
+      <c r="B586" s="1">
+        <v>121.0</v>
+      </c>
+      <c r="C586" s="1">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1">
+        <v>586.0</v>
+      </c>
+      <c r="B587" s="1">
+        <v>121.0</v>
+      </c>
+      <c r="C587" s="1">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1">
+        <v>587.0</v>
+      </c>
+      <c r="B588" s="1">
+        <v>122.0</v>
+      </c>
+      <c r="C588" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1">
+        <v>588.0</v>
+      </c>
+      <c r="B589" s="1">
+        <v>122.0</v>
+      </c>
+      <c r="C589" s="1">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1">
+        <v>589.0</v>
+      </c>
+      <c r="B590" s="1">
+        <v>122.0</v>
+      </c>
+      <c r="C590" s="1">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1">
+        <v>590.0</v>
+      </c>
+      <c r="B591" s="1">
+        <v>122.0</v>
+      </c>
+      <c r="C591" s="1">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1">
+        <v>591.0</v>
+      </c>
+      <c r="B592" s="1">
+        <v>122.0</v>
+      </c>
+      <c r="C592" s="1">
+        <v>62.0</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1">
+        <v>592.0</v>
+      </c>
+      <c r="B593" s="1">
+        <v>123.0</v>
+      </c>
+      <c r="C593" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1">
+        <v>593.0</v>
+      </c>
+      <c r="B594" s="1">
+        <v>123.0</v>
+      </c>
+      <c r="C594" s="1">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1">
+        <v>594.0</v>
+      </c>
+      <c r="B595" s="1">
+        <v>123.0</v>
+      </c>
+      <c r="C595" s="1">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1">
+        <v>595.0</v>
+      </c>
+      <c r="B596" s="1">
+        <v>123.0</v>
+      </c>
+      <c r="C596" s="1">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1">
+        <v>596.0</v>
+      </c>
+      <c r="B597" s="1">
+        <v>123.0</v>
+      </c>
+      <c r="C597" s="1">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1">
+        <v>597.0</v>
+      </c>
+      <c r="B598" s="1">
+        <v>124.0</v>
+      </c>
+      <c r="C598" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1">
+        <v>598.0</v>
+      </c>
+      <c r="B599" s="1">
+        <v>124.0</v>
+      </c>
+      <c r="C599" s="1">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1">
+        <v>599.0</v>
+      </c>
+      <c r="B600" s="1">
+        <v>125.0</v>
+      </c>
+      <c r="C600" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1">
+        <v>600.0</v>
+      </c>
+      <c r="B601" s="1">
+        <v>125.0</v>
+      </c>
+      <c r="C601" s="1">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1">
+        <v>601.0</v>
+      </c>
+      <c r="B602" s="1">
+        <v>125.0</v>
+      </c>
+      <c r="C602" s="1">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1">
+        <v>602.0</v>
+      </c>
+      <c r="B603" s="1">
+        <v>125.0</v>
+      </c>
+      <c r="C603" s="1">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1">
+        <v>603.0</v>
+      </c>
+      <c r="B604" s="1">
+        <v>125.0</v>
+      </c>
+      <c r="C604" s="1">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1">
+        <v>604.0</v>
+      </c>
+      <c r="B605" s="1">
+        <v>126.0</v>
+      </c>
+      <c r="C605" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1">
+        <v>605.0</v>
+      </c>
+      <c r="B606" s="1">
+        <v>126.0</v>
+      </c>
+      <c r="C606" s="1">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1">
+        <v>606.0</v>
+      </c>
+      <c r="B607" s="1">
+        <v>126.0</v>
+      </c>
+      <c r="C607" s="1">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1">
+        <v>607.0</v>
+      </c>
+      <c r="B608" s="1">
+        <v>126.0</v>
+      </c>
+      <c r="C608" s="1">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1">
+        <v>608.0</v>
+      </c>
+      <c r="B609" s="1">
+        <v>126.0</v>
+      </c>
+      <c r="C609" s="1">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1">
+        <v>609.0</v>
+      </c>
+      <c r="B610" s="1">
+        <v>126.0</v>
+      </c>
+      <c r="C610" s="1">
+        <v>77.0</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1">
+        <v>610.0</v>
+      </c>
+      <c r="B611" s="1">
+        <v>127.0</v>
+      </c>
+      <c r="C611" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1">
+        <v>611.0</v>
+      </c>
+      <c r="B612" s="1">
+        <v>127.0</v>
+      </c>
+      <c r="C612" s="1">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1">
+        <v>612.0</v>
+      </c>
+      <c r="B613" s="1">
+        <v>127.0</v>
+      </c>
+      <c r="C613" s="1">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1">
+        <v>613.0</v>
+      </c>
+      <c r="B614" s="1">
+        <v>127.0</v>
+      </c>
+      <c r="C614" s="1">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1">
+        <v>614.0</v>
+      </c>
+      <c r="B615" s="1">
+        <v>127.0</v>
+      </c>
+      <c r="C615" s="1">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1">
+        <v>615.0</v>
+      </c>
+      <c r="B616" s="1">
+        <v>127.0</v>
+      </c>
+      <c r="C616" s="1">
+        <v>78.0</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1">
+        <v>616.0</v>
+      </c>
+      <c r="B617" s="1">
+        <v>128.0</v>
+      </c>
+      <c r="C617" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1">
+        <v>617.0</v>
+      </c>
+      <c r="B618" s="1">
+        <v>128.0</v>
+      </c>
+      <c r="C618" s="1">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1">
+        <v>618.0</v>
+      </c>
+      <c r="B619" s="1">
+        <v>128.0</v>
+      </c>
+      <c r="C619" s="1">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1">
+        <v>619.0</v>
+      </c>
+      <c r="B620" s="1">
+        <v>128.0</v>
+      </c>
+      <c r="C620" s="1">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1">
+        <v>620.0</v>
+      </c>
+      <c r="B621" s="1">
+        <v>128.0</v>
+      </c>
+      <c r="C621" s="1">
+        <v>77.0</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1">
+        <v>621.0</v>
+      </c>
+      <c r="B622" s="1">
+        <v>129.0</v>
+      </c>
+      <c r="C622" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1">
+        <v>622.0</v>
+      </c>
+      <c r="B623" s="1">
+        <v>129.0</v>
+      </c>
+      <c r="C623" s="1">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1">
+        <v>623.0</v>
+      </c>
+      <c r="B624" s="1">
+        <v>129.0</v>
+      </c>
+      <c r="C624" s="1">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1">
+        <v>624.0</v>
+      </c>
+      <c r="B625" s="1">
+        <v>129.0</v>
+      </c>
+      <c r="C625" s="1">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1">
+        <v>625.0</v>
+      </c>
+      <c r="B626" s="1">
+        <v>129.0</v>
+      </c>
+      <c r="C626" s="1">
+        <v>78.0</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1">
+        <v>626.0</v>
+      </c>
+      <c r="B627" s="1">
+        <v>130.0</v>
+      </c>
+      <c r="C627" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1">
+        <v>627.0</v>
+      </c>
+      <c r="B628" s="1">
+        <v>130.0</v>
+      </c>
+      <c r="C628" s="1">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1">
+        <v>628.0</v>
+      </c>
+      <c r="B629" s="1">
+        <v>130.0</v>
+      </c>
+      <c r="C629" s="1">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1">
+        <v>629.0</v>
+      </c>
+      <c r="B630" s="1">
+        <v>130.0</v>
+      </c>
+      <c r="C630" s="1">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1">
+        <v>630.0</v>
+      </c>
+      <c r="B631" s="1">
+        <v>131.0</v>
+      </c>
+      <c r="C631" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1">
+        <v>631.0</v>
+      </c>
+      <c r="B632" s="1">
+        <v>131.0</v>
+      </c>
+      <c r="C632" s="1">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1">
+        <v>632.0</v>
+      </c>
+      <c r="B633" s="1">
+        <v>131.0</v>
+      </c>
+      <c r="C633" s="1">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1">
+        <v>633.0</v>
+      </c>
+      <c r="B634" s="1">
+        <v>131.0</v>
+      </c>
+      <c r="C634" s="1">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1">
+        <v>634.0</v>
+      </c>
+      <c r="B635" s="1">
+        <v>131.0</v>
+      </c>
+      <c r="C635" s="1">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1">
+        <v>635.0</v>
+      </c>
+      <c r="B636" s="1">
+        <v>132.0</v>
+      </c>
+      <c r="C636" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1">
+        <v>636.0</v>
+      </c>
+      <c r="B637" s="1">
+        <v>132.0</v>
+      </c>
+      <c r="C637" s="1">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1">
+        <v>637.0</v>
+      </c>
+      <c r="B638" s="1">
+        <v>132.0</v>
+      </c>
+      <c r="C638" s="1">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1">
+        <v>638.0</v>
+      </c>
+      <c r="B639" s="1">
+        <v>132.0</v>
+      </c>
+      <c r="C639" s="1">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1">
+        <v>639.0</v>
+      </c>
+      <c r="B640" s="1">
+        <v>132.0</v>
+      </c>
+      <c r="C640" s="1">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1">
+        <v>640.0</v>
+      </c>
+      <c r="B641" s="1">
+        <v>133.0</v>
+      </c>
+      <c r="C641" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1">
+        <v>641.0</v>
+      </c>
+      <c r="B642" s="1">
+        <v>133.0</v>
+      </c>
+      <c r="C642" s="1">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1">
+        <v>642.0</v>
+      </c>
+      <c r="B643" s="1">
+        <v>133.0</v>
+      </c>
+      <c r="C643" s="1">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1">
+        <v>643.0</v>
+      </c>
+      <c r="B644" s="1">
+        <v>134.0</v>
+      </c>
+      <c r="C644" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1">
+        <v>644.0</v>
+      </c>
+      <c r="B645" s="1">
+        <v>134.0</v>
+      </c>
+      <c r="C645" s="1">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1">
+        <v>645.0</v>
+      </c>
+      <c r="B646" s="1">
+        <v>134.0</v>
+      </c>
+      <c r="C646" s="1">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1">
+        <v>646.0</v>
+      </c>
+      <c r="B647" s="1">
+        <v>134.0</v>
+      </c>
+      <c r="C647" s="1">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1">
+        <v>647.0</v>
+      </c>
+      <c r="B648" s="1">
+        <v>135.0</v>
+      </c>
+      <c r="C648" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1">
+        <v>648.0</v>
+      </c>
+      <c r="B649" s="1">
+        <v>135.0</v>
+      </c>
+      <c r="C649" s="1">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1">
+        <v>649.0</v>
+      </c>
+      <c r="B650" s="1">
+        <v>135.0</v>
+      </c>
+      <c r="C650" s="1">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1">
+        <v>650.0</v>
+      </c>
+      <c r="B651" s="1">
+        <v>135.0</v>
+      </c>
+      <c r="C651" s="1">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1">
+        <v>651.0</v>
+      </c>
+      <c r="B652" s="1">
+        <v>136.0</v>
+      </c>
+      <c r="C652" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1">
+        <v>652.0</v>
+      </c>
+      <c r="B653" s="1">
+        <v>136.0</v>
+      </c>
+      <c r="C653" s="1">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1">
+        <v>653.0</v>
+      </c>
+      <c r="B654" s="1">
+        <v>136.0</v>
+      </c>
+      <c r="C654" s="1">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1">
+        <v>654.0</v>
+      </c>
+      <c r="B655" s="1">
+        <v>136.0</v>
+      </c>
+      <c r="C655" s="1">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1">
+        <v>655.0</v>
+      </c>
+      <c r="B656" s="1">
+        <v>137.0</v>
+      </c>
+      <c r="C656" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1">
+        <v>656.0</v>
+      </c>
+      <c r="B657" s="1">
+        <v>137.0</v>
+      </c>
+      <c r="C657" s="1">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1">
+        <v>657.0</v>
+      </c>
+      <c r="B658" s="1">
+        <v>138.0</v>
+      </c>
+      <c r="C658" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1">
+        <v>658.0</v>
+      </c>
+      <c r="B659" s="1">
+        <v>138.0</v>
+      </c>
+      <c r="C659" s="1">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1">
+        <v>659.0</v>
+      </c>
+      <c r="B660" s="1">
+        <v>138.0</v>
+      </c>
+      <c r="C660" s="1">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1">
+        <v>660.0</v>
+      </c>
+      <c r="B661" s="1">
+        <v>138.0</v>
+      </c>
+      <c r="C661" s="1">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1">
+        <v>661.0</v>
+      </c>
+      <c r="B662" s="1">
+        <v>139.0</v>
+      </c>
+      <c r="C662" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1">
+        <v>662.0</v>
+      </c>
+      <c r="B663" s="1">
+        <v>139.0</v>
+      </c>
+      <c r="C663" s="1">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1">
+        <v>663.0</v>
+      </c>
+      <c r="B664" s="1">
+        <v>139.0</v>
+      </c>
+      <c r="C664" s="1">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1">
+        <v>664.0</v>
+      </c>
+      <c r="B665" s="1">
+        <v>139.0</v>
+      </c>
+      <c r="C665" s="1">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1">
+        <v>665.0</v>
+      </c>
+      <c r="B666" s="1">
+        <v>140.0</v>
+      </c>
+      <c r="C666" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1">
+        <v>666.0</v>
+      </c>
+      <c r="B667" s="1">
+        <v>140.0</v>
+      </c>
+      <c r="C667" s="1">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1">
+        <v>667.0</v>
+      </c>
+      <c r="B668" s="1">
+        <v>140.0</v>
+      </c>
+      <c r="C668" s="1">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1">
+        <v>668.0</v>
+      </c>
+      <c r="B669" s="1">
+        <v>140.0</v>
+      </c>
+      <c r="C669" s="1">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1">
+        <v>669.0</v>
+      </c>
+      <c r="B670" s="1">
+        <v>140.0</v>
+      </c>
+      <c r="C670" s="1">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1">
+        <v>670.0</v>
+      </c>
+      <c r="B671" s="1">
+        <v>140.0</v>
+      </c>
+      <c r="C671" s="1">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1">
+        <v>671.0</v>
+      </c>
+      <c r="B672" s="1">
+        <v>141.0</v>
+      </c>
+      <c r="C672" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="1">
+        <v>672.0</v>
+      </c>
+      <c r="B673" s="1">
+        <v>141.0</v>
+      </c>
+      <c r="C673" s="1">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1">
+        <v>673.0</v>
+      </c>
+      <c r="B674" s="1">
+        <v>141.0</v>
+      </c>
+      <c r="C674" s="1">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1">
+        <v>674.0</v>
+      </c>
+      <c r="B675" s="1">
+        <v>141.0</v>
+      </c>
+      <c r="C675" s="1">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1">
+        <v>675.0</v>
+      </c>
+      <c r="B676" s="1">
+        <v>141.0</v>
+      </c>
+      <c r="C676" s="1">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1">
+        <v>676.0</v>
+      </c>
+      <c r="B677" s="1">
+        <v>141.0</v>
+      </c>
+      <c r="C677" s="1">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="1">
+        <v>677.0</v>
+      </c>
+      <c r="B678" s="1">
+        <v>142.0</v>
+      </c>
+      <c r="C678" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="1">
+        <v>678.0</v>
+      </c>
+      <c r="B679" s="1">
+        <v>142.0</v>
+      </c>
+      <c r="C679" s="1">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="1">
+        <v>679.0</v>
+      </c>
+      <c r="B680" s="1">
+        <v>142.0</v>
+      </c>
+      <c r="C680" s="1">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="1">
+        <v>680.0</v>
+      </c>
+      <c r="B681" s="1">
+        <v>142.0</v>
+      </c>
+      <c r="C681" s="1">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="1">
+        <v>681.0</v>
+      </c>
+      <c r="B682" s="1">
+        <v>143.0</v>
+      </c>
+      <c r="C682" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="1">
+        <v>682.0</v>
+      </c>
+      <c r="B683" s="1">
+        <v>143.0</v>
+      </c>
+      <c r="C683" s="1">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="1">
+        <v>683.0</v>
+      </c>
+      <c r="B684" s="1">
+        <v>143.0</v>
+      </c>
+      <c r="C684" s="1">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="1">
+        <v>684.0</v>
+      </c>
+      <c r="B685" s="1">
+        <v>143.0</v>
+      </c>
+      <c r="C685" s="1">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="1">
+        <v>685.0</v>
+      </c>
+      <c r="B686" s="1">
+        <v>144.0</v>
+      </c>
+      <c r="C686" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="1">
+        <v>686.0</v>
+      </c>
+      <c r="B687" s="1">
+        <v>144.0</v>
+      </c>
+      <c r="C687" s="1">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="1">
+        <v>687.0</v>
+      </c>
+      <c r="B688" s="1">
+        <v>144.0</v>
+      </c>
+      <c r="C688" s="1">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="1">
+        <v>688.0</v>
+      </c>
+      <c r="B689" s="1">
+        <v>144.0</v>
+      </c>
+      <c r="C689" s="1">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="1">
+        <v>689.0</v>
+      </c>
+      <c r="B690" s="1">
+        <v>145.0</v>
+      </c>
+      <c r="C690" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="1">
+        <v>690.0</v>
+      </c>
+      <c r="B691" s="1">
+        <v>145.0</v>
+      </c>
+      <c r="C691" s="1">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="1">
+        <v>691.0</v>
+      </c>
+      <c r="B692" s="1">
+        <v>145.0</v>
+      </c>
+      <c r="C692" s="1">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="1">
+        <v>692.0</v>
+      </c>
+      <c r="B693" s="1">
+        <v>145.0</v>
+      </c>
+      <c r="C693" s="1">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="1">
+        <v>693.0</v>
+      </c>
+      <c r="B694" s="1">
+        <v>146.0</v>
+      </c>
+      <c r="C694" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="1">
+        <v>694.0</v>
+      </c>
+      <c r="B695" s="1">
+        <v>146.0</v>
+      </c>
+      <c r="C695" s="1">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="1">
+        <v>695.0</v>
+      </c>
+      <c r="B696" s="1">
+        <v>146.0</v>
+      </c>
+      <c r="C696" s="1">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="1">
+        <v>696.0</v>
+      </c>
+      <c r="B697" s="1">
+        <v>146.0</v>
+      </c>
+      <c r="C697" s="1">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="1">
+        <v>697.0</v>
+      </c>
+      <c r="B698" s="1">
+        <v>147.0</v>
+      </c>
+      <c r="C698" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="1">
+        <v>698.0</v>
+      </c>
+      <c r="B699" s="1">
+        <v>147.0</v>
+      </c>
+      <c r="C699" s="1">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="1">
+        <v>699.0</v>
+      </c>
+      <c r="B700" s="1">
+        <v>147.0</v>
+      </c>
+      <c r="C700" s="1">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="1">
+        <v>700.0</v>
+      </c>
+      <c r="B701" s="1">
+        <v>147.0</v>
+      </c>
+      <c r="C701" s="1">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="1">
+        <v>701.0</v>
+      </c>
+      <c r="B702" s="1">
+        <v>148.0</v>
+      </c>
+      <c r="C702" s="1">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="1">
+        <v>702.0</v>
+      </c>
+      <c r="B703" s="1">
+        <v>148.0</v>
+      </c>
+      <c r="C703" s="1">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="1">
+        <v>703.0</v>
+      </c>
+      <c r="B704" s="1">
+        <v>148.0</v>
+      </c>
+      <c r="C704" s="1">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="1">
+        <v>704.0</v>
+      </c>
+      <c r="B705" s="1">
+        <v>148.0</v>
+      </c>
+      <c r="C705" s="1">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="1">
+        <v>705.0</v>
+      </c>
+      <c r="B706" s="1">
+        <v>149.0</v>
+      </c>
+      <c r="C706" s="1">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="1">
+        <v>706.0</v>
+      </c>
+      <c r="B707" s="1">
+        <v>149.0</v>
+      </c>
+      <c r="C707" s="1">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1">
+        <v>707.0</v>
+      </c>
+      <c r="B708" s="1">
+        <v>149.0</v>
+      </c>
+      <c r="C708" s="1">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1">
+        <v>708.0</v>
+      </c>
+      <c r="B709" s="1">
+        <v>149.0</v>
+      </c>
+      <c r="C709" s="1">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1">
+        <v>709.0</v>
+      </c>
+      <c r="B710" s="1">
+        <v>149.0</v>
+      </c>
+      <c r="C710" s="1">
+        <v>79.0</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1">
+        <v>710.0</v>
+      </c>
+      <c r="B711" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="C711" s="1">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="1">
+        <v>711.0</v>
+      </c>
+      <c r="B712" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="C712" s="1">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="1">
+        <v>712.0</v>
+      </c>
+      <c r="B713" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="C713" s="1">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="1">
+        <v>713.0</v>
+      </c>
+      <c r="B714" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="C714" s="1">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1">
+        <v>714.0</v>
+      </c>
+      <c r="B715" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="C715" s="1">
+        <v>80.0</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1">
+        <v>715.0</v>
+      </c>
+      <c r="B716" s="1">
+        <v>151.0</v>
+      </c>
+      <c r="C716" s="1">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="1">
+        <v>716.0</v>
+      </c>
+      <c r="B717" s="1">
+        <v>151.0</v>
+      </c>
+      <c r="C717" s="1">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="1">
+        <v>717.0</v>
+      </c>
+      <c r="B718" s="1">
+        <v>151.0</v>
+      </c>
+      <c r="C718" s="1">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1">
+        <v>718.0</v>
+      </c>
+      <c r="B719" s="1">
+        <v>151.0</v>
+      </c>
+      <c r="C719" s="1">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1">
+        <v>719.0</v>
+      </c>
+      <c r="B720" s="1">
+        <v>152.0</v>
+      </c>
+      <c r="C720" s="1">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1">
+        <v>720.0</v>
+      </c>
+      <c r="B721" s="1">
+        <v>152.0</v>
+      </c>
+      <c r="C721" s="1">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="1">
+        <v>721.0</v>
+      </c>
+      <c r="B722" s="1">
+        <v>153.0</v>
+      </c>
+      <c r="C722" s="1">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1">
+        <v>722.0</v>
+      </c>
+      <c r="B723" s="1">
+        <v>153.0</v>
+      </c>
+      <c r="C723" s="1">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1">
+        <v>723.0</v>
+      </c>
+      <c r="B724" s="1">
+        <v>154.0</v>
+      </c>
+      <c r="C724" s="1">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="1">
+        <v>724.0</v>
+      </c>
+      <c r="B725" s="1">
+        <v>154.0</v>
+      </c>
+      <c r="C725" s="1">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="1">
+        <v>725.0</v>
+      </c>
+      <c r="B726" s="1">
+        <v>154.0</v>
+      </c>
+      <c r="C726" s="1">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1">
+        <v>726.0</v>
+      </c>
+      <c r="B727" s="1">
+        <v>154.0</v>
+      </c>
+      <c r="C727" s="1">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="1">
+        <v>727.0</v>
+      </c>
+      <c r="B728" s="1">
+        <v>155.0</v>
+      </c>
+      <c r="C728" s="1">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="1">
+        <v>728.0</v>
+      </c>
+      <c r="B729" s="1">
+        <v>155.0</v>
+      </c>
+      <c r="C729" s="1">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="1">
+        <v>729.0</v>
+      </c>
+      <c r="B730" s="1">
+        <v>155.0</v>
+      </c>
+      <c r="C730" s="1">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="1">
+        <v>730.0</v>
+      </c>
+      <c r="B731" s="1">
+        <v>155.0</v>
+      </c>
+      <c r="C731" s="1">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="1">
+        <v>731.0</v>
+      </c>
+      <c r="B732" s="1">
+        <v>156.0</v>
+      </c>
+      <c r="C732" s="1">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="1">
+        <v>732.0</v>
+      </c>
+      <c r="B733" s="1">
+        <v>157.0</v>
+      </c>
+      <c r="C733" s="1">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="1">
+        <v>733.0</v>
+      </c>
+      <c r="B734" s="1">
+        <v>157.0</v>
+      </c>
+      <c r="C734" s="1">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="1">
+        <v>734.0</v>
+      </c>
+      <c r="B735" s="1">
+        <v>157.0</v>
+      </c>
+      <c r="C735" s="1">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="1">
+        <v>735.0</v>
+      </c>
+      <c r="B736" s="1">
+        <v>157.0</v>
+      </c>
+      <c r="C736" s="1">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="1">
+        <v>736.0</v>
+      </c>
+      <c r="B737" s="1">
+        <v>158.0</v>
+      </c>
+      <c r="C737" s="1">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="1">
+        <v>737.0</v>
+      </c>
+      <c r="B738" s="1">
+        <v>158.0</v>
+      </c>
+      <c r="C738" s="1">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="1">
+        <v>738.0</v>
+      </c>
+      <c r="B739" s="1">
+        <v>158.0</v>
+      </c>
+      <c r="C739" s="1">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="1">
+        <v>739.0</v>
+      </c>
+      <c r="B740" s="1">
+        <v>158.0</v>
+      </c>
+      <c r="C740" s="1">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="1">
+        <v>740.0</v>
+      </c>
+      <c r="B741" s="1">
+        <v>159.0</v>
+      </c>
+      <c r="C741" s="1">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="1">
+        <v>741.0</v>
+      </c>
+      <c r="B742" s="1">
+        <v>159.0</v>
+      </c>
+      <c r="C742" s="1">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="1">
+        <v>742.0</v>
+      </c>
+      <c r="B743" s="1">
+        <v>160.0</v>
+      </c>
+      <c r="C743" s="1">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="1">
+        <v>743.0</v>
+      </c>
+      <c r="B744" s="1">
+        <v>160.0</v>
+      </c>
+      <c r="C744" s="1">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="1">
+        <v>744.0</v>
+      </c>
+      <c r="B745" s="1">
+        <v>160.0</v>
+      </c>
+      <c r="C745" s="1">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="1">
+        <v>745.0</v>
+      </c>
+      <c r="B746" s="1">
+        <v>160.0</v>
+      </c>
+      <c r="C746" s="1">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="1">
+        <v>746.0</v>
+      </c>
+      <c r="B747" s="1">
+        <v>161.0</v>
+      </c>
+      <c r="C747" s="1">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="1">
+        <v>747.0</v>
+      </c>
+      <c r="B748" s="1">
+        <v>161.0</v>
+      </c>
+      <c r="C748" s="1">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="1">
+        <v>748.0</v>
+      </c>
+      <c r="B749" s="1">
+        <v>161.0</v>
+      </c>
+      <c r="C749" s="1">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="1">
+        <v>749.0</v>
+      </c>
+      <c r="B750" s="1">
+        <v>161.0</v>
+      </c>
+      <c r="C750" s="1">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="1">
+        <v>750.0</v>
+      </c>
+      <c r="B751" s="1">
+        <v>162.0</v>
+      </c>
+      <c r="C751" s="1">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="1">
+        <v>751.0</v>
+      </c>
+      <c r="B752" s="1">
+        <v>162.0</v>
+      </c>
+      <c r="C752" s="1">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="1">
+        <v>752.0</v>
+      </c>
+      <c r="B753" s="1">
+        <v>162.0</v>
+      </c>
+      <c r="C753" s="1">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="1">
+        <v>753.0</v>
+      </c>
+      <c r="B754" s="1">
+        <v>162.0</v>
+      </c>
+      <c r="C754" s="1">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="1">
+        <v>754.0</v>
+      </c>
+      <c r="B755" s="1">
+        <v>163.0</v>
+      </c>
+      <c r="C755" s="1">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="1">
+        <v>755.0</v>
+      </c>
+      <c r="B756" s="1">
+        <v>163.0</v>
+      </c>
+      <c r="C756" s="1">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="1">
+        <v>756.0</v>
+      </c>
+      <c r="B757" s="1">
+        <v>163.0</v>
+      </c>
+      <c r="C757" s="1">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="1">
+        <v>757.0</v>
+      </c>
+      <c r="B758" s="1">
+        <v>164.0</v>
+      </c>
+      <c r="C758" s="1">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="1">
+        <v>758.0</v>
+      </c>
+      <c r="B759" s="1">
+        <v>164.0</v>
+      </c>
+      <c r="C759" s="1">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="1">
+        <v>759.0</v>
+      </c>
+      <c r="B760" s="1">
+        <v>165.0</v>
+      </c>
+      <c r="C760" s="1">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="1">
+        <v>760.0</v>
+      </c>
+      <c r="B761" s="1">
+        <v>165.0</v>
+      </c>
+      <c r="C761" s="1">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="1">
+        <v>761.0</v>
+      </c>
+      <c r="B762" s="1">
+        <v>166.0</v>
+      </c>
+      <c r="C762" s="1">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="1">
+        <v>762.0</v>
+      </c>
+      <c r="B763" s="1">
+        <v>166.0</v>
+      </c>
+      <c r="C763" s="1">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="1">
+        <v>763.0</v>
+      </c>
+      <c r="B764" s="1">
+        <v>166.0</v>
+      </c>
+      <c r="C764" s="1">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="1">
+        <v>764.0</v>
+      </c>
+      <c r="B765" s="1">
+        <v>166.0</v>
+      </c>
+      <c r="C765" s="1">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="1">
+        <v>765.0</v>
+      </c>
+      <c r="B766" s="1">
+        <v>167.0</v>
+      </c>
+      <c r="C766" s="1">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="1">
+        <v>766.0</v>
+      </c>
+      <c r="B767" s="1">
+        <v>167.0</v>
+      </c>
+      <c r="C767" s="1">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="1">
+        <v>767.0</v>
+      </c>
+      <c r="B768" s="1">
+        <v>167.0</v>
+      </c>
+      <c r="C768" s="1">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="1">
+        <v>768.0</v>
+      </c>
+      <c r="B769" s="1">
+        <v>167.0</v>
+      </c>
+      <c r="C769" s="1">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="1">
+        <v>769.0</v>
+      </c>
+      <c r="B770" s="1">
+        <v>168.0</v>
+      </c>
+      <c r="C770" s="1">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="1">
+        <v>770.0</v>
+      </c>
+      <c r="B771" s="1">
+        <v>168.0</v>
+      </c>
+      <c r="C771" s="1">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="1">
+        <v>771.0</v>
+      </c>
+      <c r="B772" s="1">
+        <v>168.0</v>
+      </c>
+      <c r="C772" s="1">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="1">
+        <v>772.0</v>
+      </c>
+      <c r="B773" s="1">
+        <v>168.0</v>
+      </c>
+      <c r="C773" s="1">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="1">
+        <v>773.0</v>
+      </c>
+      <c r="B774" s="1">
+        <v>168.0</v>
+      </c>
+      <c r="C774" s="1">
+        <v>81.0</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="1">
+        <v>774.0</v>
+      </c>
+      <c r="B775" s="1">
+        <v>169.0</v>
+      </c>
+      <c r="C775" s="1">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="1">
+        <v>775.0</v>
+      </c>
+      <c r="B776" s="1">
+        <v>169.0</v>
+      </c>
+      <c r="C776" s="1">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="1">
+        <v>776.0</v>
+      </c>
+      <c r="B777" s="1">
+        <v>169.0</v>
+      </c>
+      <c r="C777" s="1">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="1">
+        <v>777.0</v>
+      </c>
+      <c r="B778" s="1">
+        <v>169.0</v>
+      </c>
+      <c r="C778" s="1">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="1">
+        <v>778.0</v>
+      </c>
+      <c r="B779" s="1">
+        <v>169.0</v>
+      </c>
+      <c r="C779" s="1">
+        <v>82.0</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="1">
+        <v>779.0</v>
+      </c>
+      <c r="B780" s="1">
+        <v>170.0</v>
+      </c>
+      <c r="C780" s="1">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="1">
+        <v>780.0</v>
+      </c>
+      <c r="B781" s="1">
+        <v>170.0</v>
+      </c>
+      <c r="C781" s="1">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="1">
+        <v>781.0</v>
+      </c>
+      <c r="B782" s="1">
+        <v>170.0</v>
+      </c>
+      <c r="C782" s="1">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="1">
+        <v>782.0</v>
+      </c>
+      <c r="B783" s="1">
+        <v>170.0</v>
+      </c>
+      <c r="C783" s="1">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="1">
+        <v>783.0</v>
+      </c>
+      <c r="B784" s="1">
+        <v>170.0</v>
+      </c>
+      <c r="C784" s="1">
+        <v>84.0</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="1">
+        <v>784.0</v>
+      </c>
+      <c r="B785" s="1">
+        <v>171.0</v>
+      </c>
+      <c r="C785" s="1">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1">
+        <v>785.0</v>
+      </c>
+      <c r="B786" s="1">
+        <v>171.0</v>
+      </c>
+      <c r="C786" s="1">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="1">
+        <v>786.0</v>
+      </c>
+      <c r="B787" s="1">
+        <v>171.0</v>
+      </c>
+      <c r="C787" s="1">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1">
+        <v>787.0</v>
+      </c>
+      <c r="B788" s="1">
+        <v>171.0</v>
+      </c>
+      <c r="C788" s="1">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1">
+        <v>788.0</v>
+      </c>
+      <c r="B789" s="1">
+        <v>171.0</v>
+      </c>
+      <c r="C789" s="1">
+        <v>83.0</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="1">
+        <v>789.0</v>
+      </c>
+      <c r="B790" s="1">
+        <v>172.0</v>
+      </c>
+      <c r="C790" s="1">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1">
+        <v>790.0</v>
+      </c>
+      <c r="B791" s="1">
+        <v>172.0</v>
+      </c>
+      <c r="C791" s="1">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1">
+        <v>791.0</v>
+      </c>
+      <c r="B792" s="1">
+        <v>172.0</v>
+      </c>
+      <c r="C792" s="1">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1">
+        <v>792.0</v>
+      </c>
+      <c r="B793" s="1">
+        <v>172.0</v>
+      </c>
+      <c r="C793" s="1">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="1">
+        <v>793.0</v>
+      </c>
+      <c r="B794" s="1">
+        <v>173.0</v>
+      </c>
+      <c r="C794" s="1">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="1">
+        <v>794.0</v>
+      </c>
+      <c r="B795" s="1">
+        <v>173.0</v>
+      </c>
+      <c r="C795" s="1">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1">
+        <v>795.0</v>
+      </c>
+      <c r="B796" s="1">
+        <v>173.0</v>
+      </c>
+      <c r="C796" s="1">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="1">
+        <v>796.0</v>
+      </c>
+      <c r="B797" s="1">
+        <v>173.0</v>
+      </c>
+      <c r="C797" s="1">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="1">
+        <v>797.0</v>
+      </c>
+      <c r="B798" s="1">
+        <v>173.0</v>
+      </c>
+      <c r="C798" s="1">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="1">
+        <v>798.0</v>
+      </c>
+      <c r="B799" s="1">
+        <v>173.0</v>
+      </c>
+      <c r="C799" s="1">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="1">
+        <v>799.0</v>
+      </c>
+      <c r="B800" s="1">
+        <v>174.0</v>
+      </c>
+      <c r="C800" s="1">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="1">
+        <v>800.0</v>
+      </c>
+      <c r="B801" s="1">
+        <v>174.0</v>
+      </c>
+      <c r="C801" s="1">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="1">
+        <v>801.0</v>
+      </c>
+      <c r="B802" s="1">
+        <v>174.0</v>
+      </c>
+      <c r="C802" s="1">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="1">
+        <v>802.0</v>
+      </c>
+      <c r="B803" s="1">
+        <v>174.0</v>
+      </c>
+      <c r="C803" s="1">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="1">
+        <v>803.0</v>
+      </c>
+      <c r="B804" s="1">
+        <v>174.0</v>
+      </c>
+      <c r="C804" s="1">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="1">
+        <v>804.0</v>
+      </c>
+      <c r="B805" s="1">
+        <v>174.0</v>
+      </c>
+      <c r="C805" s="1">
+        <v>42.0</v>
       </c>
     </row>
   </sheetData>
@@ -13109,16 +17318,2094 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="3.63"/>
+    <col customWidth="1" min="2" max="2" width="9.5"/>
+    <col customWidth="1" min="3" max="3" width="16.25"/>
+    <col customWidth="1" min="4" max="4" width="11.0"/>
+    <col customWidth="1" min="5" max="30" width="5.88"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="B1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1" s="8">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTUNIQUE(C2:AC2)"),27.0)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD2" s="6"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>133.0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3">
+        <f t="shared" ref="AD3:AD44" si="1">(27-COUNTBLANK(C3:AC3))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>134.0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F4" s="3">
+        <v>36.0</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>135.0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" s="3">
+        <v>37.0</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>136.0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F6" s="3">
+        <v>38.0</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>137.0</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>138.0</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F8" s="3">
+        <v>36.0</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>139.0</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F9" s="3">
+        <v>37.0</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>140.0</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F10" s="3">
+        <v>36.0</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>141.0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F11" s="3">
+        <v>36.0</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>142.0</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F12" s="3">
+        <v>37.0</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>143.0</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F13" s="3">
+        <v>38.0</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>144.0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F14" s="3">
+        <v>37.0</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>145.0</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F15" s="3">
+        <v>38.0</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>146.0</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F16" s="3">
+        <v>37.0</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>147.0</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F17" s="3">
+        <v>38.0</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>148.0</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F18" s="3">
+        <v>36.0</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>149.0</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F19" s="3">
+        <v>37.0</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F20" s="3">
+        <v>37.0</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>151.0</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F21" s="3">
+        <v>38.0</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>152.0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>153.0</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>154.0</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F24" s="3">
+        <v>37.0</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>155.0</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F25" s="3">
+        <v>38.0</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>156.0</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>71</v>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>157.0</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F27" s="3">
+        <v>36.0</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>158.0</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F28" s="3">
+        <v>37.0</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>159.0</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>160.0</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F30" s="3">
+        <v>36.0</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>161.0</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F31" s="3">
+        <v>37.0</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>162.0</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F32" s="3">
+        <v>38.0</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>163.0</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>164.0</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>165.0</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <v>166.0</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F36" s="3">
+        <v>36.0</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
+        <v>167.0</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F37" s="3">
+        <v>37.0</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1">
+        <v>168.0</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F38" s="3">
+        <v>36.0</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1">
+        <v>169.0</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F39" s="3">
+        <v>36.0</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1">
+        <v>170.0</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F40" s="3">
+        <v>37.0</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD40" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1">
+        <v>171.0</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F41" s="3">
+        <v>37.0</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="3"/>
+      <c r="AC41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD41" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1">
+        <v>172.0</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F42" s="3">
+        <v>37.0</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3"/>
+      <c r="AC42" s="3"/>
+      <c r="AD42" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1">
+        <v>173.0</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F43" s="3">
+        <v>38.0</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3"/>
+      <c r="AC43" s="3"/>
+      <c r="AD43" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1">
+        <v>174.0</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F44" s="3">
+        <v>38.0</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="3"/>
+      <c r="AC44" s="3"/>
+      <c r="AD44" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -13138,13 +19425,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -13153,6 +19440,32 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -13176,10 +19489,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2">
@@ -13190,10 +19503,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3">
@@ -13204,10 +19517,10 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4">
@@ -13218,7 +19531,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5">
@@ -13229,10 +19542,10 @@
         <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6">
@@ -13243,10 +19556,10 @@
         <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7">
@@ -13257,10 +19570,10 @@
         <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="8">
@@ -13271,10 +19584,10 @@
         <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9">
@@ -13284,11 +19597,11 @@
       <c r="B9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>245</v>
+      <c r="C9" s="9" t="s">
+        <v>252</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10">
@@ -13299,10 +19612,10 @@
         <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11">
@@ -13313,10 +19626,10 @@
         <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12">
@@ -13327,10 +19640,10 @@
         <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13">
@@ -13341,10 +19654,10 @@
         <v>53</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14">
@@ -13355,10 +19668,10 @@
         <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15">
@@ -13368,11 +19681,11 @@
       <c r="B15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>251</v>
+      <c r="C15" s="9" t="s">
+        <v>258</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16">
@@ -13383,10 +19696,10 @@
         <v>56</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17">
@@ -13397,10 +19710,10 @@
         <v>57</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18">
@@ -13411,10 +19724,10 @@
         <v>58</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19">
@@ -13425,10 +19738,10 @@
         <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20">
@@ -13439,10 +19752,10 @@
         <v>60</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21">
@@ -13453,10 +19766,10 @@
         <v>61</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22">
@@ -13467,10 +19780,10 @@
         <v>62</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23">
@@ -13481,10 +19794,10 @@
         <v>63</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24">
@@ -13495,10 +19808,10 @@
         <v>64</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25">
@@ -13509,10 +19822,10 @@
         <v>65</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26">
@@ -13523,10 +19836,10 @@
         <v>66</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27">
@@ -13537,10 +19850,10 @@
         <v>67</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28">
@@ -13551,10 +19864,10 @@
         <v>68</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29">
@@ -13565,10 +19878,10 @@
         <v>69</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30">
@@ -13579,10 +19892,10 @@
         <v>70</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31">
@@ -13593,7 +19906,7 @@
         <v>82</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -13601,7 +19914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -13615,18 +19928,18 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>269</v>
+      <c r="B1" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4">
         <v>1.0</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="10">
         <v>1.0</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -13637,7 +19950,7 @@
       <c r="A3" s="4">
         <v>2.0</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="10">
         <v>1.0</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -13648,7 +19961,7 @@
       <c r="A4" s="4">
         <v>3.0</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="10">
         <v>1.0</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -13659,7 +19972,7 @@
       <c r="A5" s="4">
         <v>4.0</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="10">
         <v>1.0</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -13670,7 +19983,7 @@
       <c r="A6" s="4">
         <v>5.0</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="10">
         <v>1.0</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -13681,7 +19994,7 @@
       <c r="A7" s="4">
         <v>6.0</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="10">
         <v>2.0</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -13692,7 +20005,7 @@
       <c r="A8" s="4">
         <v>7.0</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="10">
         <v>2.0</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -13703,7 +20016,7 @@
       <c r="A9" s="4">
         <v>8.0</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="10">
         <v>2.0</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -13714,7 +20027,7 @@
       <c r="A10" s="4">
         <v>9.0</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="10">
         <v>3.0</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -13725,7 +20038,7 @@
       <c r="A11" s="4">
         <v>10.0</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="10">
         <v>3.0</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -13736,7 +20049,7 @@
       <c r="A12" s="4">
         <v>11.0</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="10">
         <v>3.0</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -13747,7 +20060,7 @@
       <c r="A13" s="4">
         <v>12.0</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="10">
         <v>3.0</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -13758,7 +20071,7 @@
       <c r="A14" s="4">
         <v>13.0</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="10">
         <v>3.0</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -13769,7 +20082,7 @@
       <c r="A15" s="4">
         <v>14.0</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="10">
         <v>3.0</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -13780,7 +20093,7 @@
       <c r="A16" s="4">
         <v>15.0</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="10">
         <v>3.0</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -13791,7 +20104,7 @@
       <c r="A17" s="4">
         <v>16.0</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="10">
         <v>3.0</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -13802,7 +20115,7 @@
       <c r="A18" s="4">
         <v>17.0</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="10">
         <v>3.0</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -13813,7 +20126,7 @@
       <c r="A19" s="4">
         <v>18.0</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="10">
         <v>3.0</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -13824,7 +20137,7 @@
       <c r="A20" s="4">
         <v>19.0</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="10">
         <v>3.0</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -13835,7 +20148,7 @@
       <c r="A21" s="4">
         <v>20.0</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="10">
         <v>3.0</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -13846,7 +20159,7 @@
       <c r="A22" s="4">
         <v>21.0</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="10">
         <v>3.0</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -13857,7 +20170,7 @@
       <c r="A23" s="4">
         <v>22.0</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="10">
         <v>3.0</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -13868,7 +20181,7 @@
       <c r="A24" s="4">
         <v>23.0</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="10">
         <v>3.0</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -13879,7 +20192,7 @@
       <c r="A25" s="4">
         <v>24.0</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="10">
         <v>4.0</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -13890,7 +20203,7 @@
       <c r="A26" s="4">
         <v>25.0</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="10">
         <v>4.0</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -13901,7 +20214,7 @@
       <c r="A27" s="4">
         <v>26.0</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="10">
         <v>4.0</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -13912,7 +20225,7 @@
       <c r="A28" s="4">
         <v>27.0</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="10">
         <v>4.0</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -13923,7 +20236,7 @@
       <c r="A29" s="4">
         <v>28.0</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="10">
         <v>4.0</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -13934,7 +20247,7 @@
       <c r="A30" s="4">
         <v>29.0</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="10">
         <v>4.0</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -13945,7 +20258,7 @@
       <c r="A31" s="4">
         <v>30.0</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="10">
         <v>4.0</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -13956,18 +20269,18 @@
       <c r="A32" s="4">
         <v>31.0</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="10">
         <v>4.0</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>270</v>
+      <c r="C32" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4">
         <v>32.0</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="10">
         <v>5.0</v>
       </c>
       <c r="C33" s="4">
@@ -13978,7 +20291,7 @@
       <c r="A34" s="4">
         <v>33.0</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="10">
         <v>5.0</v>
       </c>
       <c r="C34" s="4">
@@ -13989,7 +20302,7 @@
       <c r="A35" s="4">
         <v>34.0</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="10">
         <v>5.0</v>
       </c>
       <c r="C35" s="4">
@@ -14000,7 +20313,7 @@
       <c r="A36" s="4">
         <v>35.0</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="10">
         <v>5.0</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -14011,7 +20324,7 @@
       <c r="A37" s="4">
         <v>36.0</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="10">
         <v>6.0</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -14022,7 +20335,7 @@
       <c r="A38" s="4">
         <v>37.0</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="10">
         <v>6.0</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -14033,7 +20346,7 @@
       <c r="A39" s="4">
         <v>38.0</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="10">
         <v>6.0</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -14044,7 +20357,7 @@
       <c r="A40" s="4">
         <v>39.0</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="10">
         <v>7.0</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -14055,7 +20368,7 @@
       <c r="A41" s="4">
         <v>40.0</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="10">
         <v>7.0</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -14066,7 +20379,7 @@
       <c r="A42" s="4">
         <v>41.0</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="10">
         <v>8.0</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -14077,7 +20390,7 @@
       <c r="A43" s="4">
         <v>42.0</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="10">
         <v>8.0</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -14088,7 +20401,7 @@
       <c r="A44" s="4">
         <v>43.0</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="10">
         <v>9.0</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -14099,7 +20412,7 @@
       <c r="A45" s="4">
         <v>44.0</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="10">
         <v>9.0</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -14110,7 +20423,7 @@
       <c r="A46" s="4">
         <v>45.0</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="10">
         <v>10.0</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -14121,7 +20434,7 @@
       <c r="A47" s="4">
         <v>46.0</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="10">
         <v>10.0</v>
       </c>
       <c r="C47" s="3" t="s">
@@ -14132,7 +20445,7 @@
       <c r="A48" s="4">
         <v>47.0</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="10">
         <v>11.0</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -14143,7 +20456,7 @@
       <c r="A49" s="4">
         <v>48.0</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="10">
         <v>11.0</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -14154,7 +20467,7 @@
       <c r="A50" s="4">
         <v>49.0</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="10">
         <v>12.0</v>
       </c>
       <c r="C50" s="3" t="s">
@@ -14165,7 +20478,7 @@
       <c r="A51" s="4">
         <v>50.0</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="10">
         <v>12.0</v>
       </c>
       <c r="C51" s="3" t="s">
@@ -14176,7 +20489,7 @@
       <c r="A52" s="4">
         <v>51.0</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="10">
         <v>13.0</v>
       </c>
       <c r="C52" s="3" t="s">
@@ -14187,7 +20500,7 @@
       <c r="A53" s="4">
         <v>52.0</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="10">
         <v>13.0</v>
       </c>
       <c r="C53" s="3" t="s">
@@ -14198,7 +20511,7 @@
       <c r="A54" s="4">
         <v>53.0</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="10">
         <v>14.0</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -14209,7 +20522,7 @@
       <c r="A55" s="4">
         <v>54.0</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="10">
         <v>14.0</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -14220,7 +20533,7 @@
       <c r="A56" s="4">
         <v>55.0</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="10">
         <v>15.0</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -14231,7 +20544,7 @@
       <c r="A57" s="4">
         <v>56.0</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="10">
         <v>15.0</v>
       </c>
       <c r="C57" s="3" t="s">
@@ -14242,7 +20555,7 @@
       <c r="A58" s="4">
         <v>57.0</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="10">
         <v>16.0</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -14253,7 +20566,7 @@
       <c r="A59" s="4">
         <v>58.0</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="10">
         <v>16.0</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -14264,7 +20577,7 @@
       <c r="A60" s="4">
         <v>59.0</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="10">
         <v>17.0</v>
       </c>
       <c r="C60" s="3" t="s">
@@ -14275,7 +20588,7 @@
       <c r="A61" s="4">
         <v>60.0</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="10">
         <v>17.0</v>
       </c>
       <c r="C61" s="3" t="s">
@@ -14286,7 +20599,7 @@
       <c r="A62" s="4">
         <v>61.0</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="10">
         <v>18.0</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -14297,7 +20610,7 @@
       <c r="A63" s="4">
         <v>62.0</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="10">
         <v>18.0</v>
       </c>
       <c r="C63" s="3" t="s">
@@ -14308,7 +20621,7 @@
       <c r="A64" s="4">
         <v>63.0</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="10">
         <v>19.0</v>
       </c>
       <c r="C64" s="3" t="s">
@@ -14319,7 +20632,7 @@
       <c r="A65" s="4">
         <v>64.0</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="10">
         <v>19.0</v>
       </c>
       <c r="C65" s="3" t="s">
@@ -14330,7 +20643,7 @@
       <c r="A66" s="4">
         <v>65.0</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="10">
         <v>20.0</v>
       </c>
       <c r="C66" s="3" t="s">
@@ -14341,7 +20654,7 @@
       <c r="A67" s="4">
         <v>66.0</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67" s="10">
         <v>20.0</v>
       </c>
       <c r="C67" s="3" t="s">
@@ -14352,7 +20665,7 @@
       <c r="A68" s="4">
         <v>67.0</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B68" s="10">
         <v>21.0</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -14363,7 +20676,7 @@
       <c r="A69" s="4">
         <v>68.0</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B69" s="10">
         <v>21.0</v>
       </c>
       <c r="C69" s="3" t="s">
@@ -14374,7 +20687,7 @@
       <c r="A70" s="4">
         <v>69.0</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70" s="10">
         <v>22.0</v>
       </c>
       <c r="C70" s="3" t="s">
@@ -14385,7 +20698,7 @@
       <c r="A71" s="4">
         <v>70.0</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B71" s="10">
         <v>22.0</v>
       </c>
       <c r="C71" s="3" t="s">
@@ -14396,7 +20709,7 @@
       <c r="A72" s="4">
         <v>71.0</v>
       </c>
-      <c r="B72" s="7">
+      <c r="B72" s="10">
         <v>23.0</v>
       </c>
       <c r="C72" s="3" t="s">
@@ -14407,7 +20720,7 @@
       <c r="A73" s="4">
         <v>72.0</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B73" s="10">
         <v>23.0</v>
       </c>
       <c r="C73" s="3" t="s">
@@ -14418,7 +20731,7 @@
       <c r="A74" s="4">
         <v>73.0</v>
       </c>
-      <c r="B74" s="7">
+      <c r="B74" s="10">
         <v>24.0</v>
       </c>
       <c r="C74" s="3" t="s">
@@ -14429,7 +20742,7 @@
       <c r="A75" s="4">
         <v>74.0</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B75" s="10">
         <v>24.0</v>
       </c>
       <c r="C75" s="3" t="s">
@@ -14440,7 +20753,7 @@
       <c r="A76" s="4">
         <v>75.0</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B76" s="10">
         <v>25.0</v>
       </c>
       <c r="C76" s="3" t="s">
@@ -14451,7 +20764,7 @@
       <c r="A77" s="4">
         <v>76.0</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B77" s="10">
         <v>25.0</v>
       </c>
       <c r="C77" s="3" t="s">
@@ -14462,7 +20775,7 @@
       <c r="A78" s="4">
         <v>77.0</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B78" s="10">
         <v>26.0</v>
       </c>
       <c r="C78" s="3" t="s">
@@ -14473,7 +20786,7 @@
       <c r="A79" s="4">
         <v>78.0</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B79" s="10">
         <v>26.0</v>
       </c>
       <c r="C79" s="3" t="s">
@@ -14484,7 +20797,7 @@
       <c r="A80" s="4">
         <v>79.0</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B80" s="10">
         <v>27.0</v>
       </c>
       <c r="C80" s="3" t="s">
@@ -14495,7 +20808,7 @@
       <c r="A81" s="4">
         <v>80.0</v>
       </c>
-      <c r="B81" s="7">
+      <c r="B81" s="10">
         <v>27.0</v>
       </c>
       <c r="C81" s="3" t="s">
@@ -14506,7 +20819,7 @@
       <c r="A82" s="4">
         <v>81.0</v>
       </c>
-      <c r="B82" s="7">
+      <c r="B82" s="10">
         <v>28.0</v>
       </c>
       <c r="C82" s="3" t="s">
@@ -14517,7 +20830,7 @@
       <c r="A83" s="4">
         <v>82.0</v>
       </c>
-      <c r="B83" s="7">
+      <c r="B83" s="10">
         <v>28.0</v>
       </c>
       <c r="C83" s="3" t="s">
@@ -14528,7 +20841,7 @@
       <c r="A84" s="4">
         <v>83.0</v>
       </c>
-      <c r="B84" s="7">
+      <c r="B84" s="10">
         <v>29.0</v>
       </c>
       <c r="C84" s="3" t="s">
@@ -14539,7 +20852,7 @@
       <c r="A85" s="4">
         <v>84.0</v>
       </c>
-      <c r="B85" s="7">
+      <c r="B85" s="10">
         <v>29.0</v>
       </c>
       <c r="C85" s="3" t="s">
